--- a/persian/niutrans.xlsx
+++ b/persian/niutrans.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\spreadhseets\persian\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BFD2A7C-752D-4238-97A6-73B5B4C703A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87ACCFA8-98AC-49ED-BE44-03100E075BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1425" yWindow="1425" windowWidth="19050" windowHeight="7035" tabRatio="714" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3165" yWindow="5610" windowWidth="19050" windowHeight="7035" tabRatio="714" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="478">
   <si>
     <t>Error Typology Benchmark</t>
   </si>
@@ -1415,12 +1415,6 @@
     <t>PenaltiesThresholds worksheet: input the penalties and threshold you want the evaluation template to apply. The penalties allocate negative points to identified errors. They can vary depending on the severity of a particular error. The threshold is the maximum number of penalty points the content can obtain per 1000 words in order to pass the evaluation. See PenaltiesThresholds worksheet for examples used in industry.</t>
   </si>
   <si>
-    <t>Number of words till here</t>
-  </si>
-  <si>
-    <t>Negative Points till here</t>
-  </si>
-  <si>
     <t>این پسر بچه با پدرش تنها زندگی می‌کرد و رابطه ویژه‌ای بین آن دو وجود داشت.</t>
   </si>
   <si>
@@ -1445,9 +1439,6 @@
     <t>این شماره تلفن عوض شده.</t>
   </si>
   <si>
-    <t>لقد تم تغيير رقم الهاتف هذا.</t>
-  </si>
-  <si>
     <t>چند روز در هفته ورزش میکنی؟</t>
   </si>
   <si>
@@ -1553,24 +1544,15 @@
     <t>سه روز دیگه برمیگردند.</t>
   </si>
   <si>
-    <t>وسوف يعودون في ثلاثة أيام.</t>
-  </si>
-  <si>
     <t>پول خوبی در میآورند میگوید اما زندگی اهمیت ندارد.</t>
   </si>
   <si>
-    <t>ويقول إنهم يكسبون أموالاً جيدة، لكن الحياة ليس لها أهمية.</t>
-  </si>
-  <si>
     <t>ما تو فرودگاه همراهش بودیم.</t>
   </si>
   <si>
     <t>تو هم توی سفارت این کشور نشستی.</t>
   </si>
   <si>
-    <t>لقد جلست أيضًا في سفارة هذا البلد.</t>
-  </si>
-  <si>
     <t>اینرا هم از کتابخانه گرفته بودم.</t>
   </si>
   <si>
@@ -1586,21 +1568,12 @@
     <t>من هم بهایی هستم.</t>
   </si>
   <si>
-    <t>وأنا بهائي أيضًا.</t>
-  </si>
-  <si>
     <t>بابا هم گفت عیب ندارد.</t>
   </si>
   <si>
-    <t>قال أبي أيضًا إنها ليست مشكلة.</t>
-  </si>
-  <si>
     <t>نادرشاه رهبران بزرگ شیعه و سنّی را گرد هم آورد.</t>
   </si>
   <si>
-    <t>لقد جمع نادر شاه كبار زعماء الشيعة والسنة معًا.</t>
-  </si>
-  <si>
     <t>جمعاً ۷۸ آسانسور در این دو ساختمان فعال هستند.</t>
   </si>
   <si>
@@ -1652,19 +1625,10 @@
     <t>این کشور دارای راه آبی به دریاهای آزاد نیست.</t>
   </si>
   <si>
-    <t>هذا البلد ليس لديه ممر مائي لفتح المياه.</t>
-  </si>
-  <si>
-    <t>میتوانیم لیست بلند بالایی از داشتههامون تهیه کنیم.</t>
-  </si>
-  <si>
     <t>يمكننا تقديم قائمة طويلة من ممتلكاتنا.</t>
   </si>
   <si>
     <t>خرسهای کوالا یکی از کندترین حیوانات جهان هستند.</t>
-  </si>
-  <si>
-    <t>تعتبر دببة الكوالا واحدة من أبطأ الحيوانات في العالم.</t>
   </si>
   <si>
     <r>
@@ -1701,11 +1665,11 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF00B050"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>بيمان</t>
+      <t>المعاهدة</t>
     </r>
     <r>
       <rPr>
@@ -1714,21 +1678,18 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> متعب.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">إنهم </t>
-    </r>
+      <t xml:space="preserve"> منهكة.</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF00B050"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>يعتنون</t>
+      <t>سيعتنون</t>
     </r>
     <r>
       <rPr>
@@ -1742,46 +1703,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>المعاهدة</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> منهكة.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>سيعتنون</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> بالأطفال.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>كم أيام في الأسبوع تمارس</t>
     </r>
     <r>
@@ -1827,17 +1748,158 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">أريد أن أتحدث مع </t>
+    <t>الجو بارد هنا.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">لقد ترك </t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF00B050"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>مريم</t>
+      <t>العالم</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ألعابه للأطفال.</t>
+    </r>
+  </si>
+  <si>
+    <t>اسأل نفسك الآنسة.</t>
+  </si>
+  <si>
+    <t>هل قضيت أسبوعاً في المستشفى؟</t>
+  </si>
+  <si>
+    <t>العديد من فروع مختلفة لها هي أيضا في لوس أنجلوس وشيكاغو.</t>
+  </si>
+  <si>
+    <t>لديه شقيقتان.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>سأل</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> نفسي كل يوم ما هي الإجابة التي أعطونني !</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>سأل</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> نفسي كل يوم </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ما هي الإجابة التي أعطونني</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> !</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">وقد هاجر العديد من </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>الأكراد الأتراك</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> إلى إسطنبول.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>أول شخص</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> طلب من الله المزيد من المنزل والملابس والطعام.</t>
+    </r>
+  </si>
+  <si>
+    <t>اكتشف إسحاق نيوتن الجاذبية التي سقطت على رأسه تفاحة.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">الناس العاديين يمكنهم </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>الفوز</t>
     </r>
     <r>
       <rPr>
@@ -1850,34 +1912,14 @@
     </r>
   </si>
   <si>
-    <t>الجو بارد هنا.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">تركت </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>دنيا</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> ألعابها للأطفال.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">لقد ترك </t>
+    <t>لقد عاشوا هنا منذ أكثر من خمس سنوات.</t>
+  </si>
+  <si>
+    <t>بلغت ثلاثمائة تومان.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">وصل إلى ثلاثمائة </t>
     </r>
     <r>
       <rPr>
@@ -1886,122 +1928,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>العالم</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> ألعابه للأطفال.</t>
-    </r>
-  </si>
-  <si>
-    <t>اسأل نفسك الآنسة.</t>
-  </si>
-  <si>
-    <t>هل قضيت أسبوعاً في المستشفى؟</t>
-  </si>
-  <si>
-    <t>العديد من فروع مختلفة لها هي أيضا في لوس أنجلوس وشيكاغو.</t>
-  </si>
-  <si>
-    <t>لديه شقيقتان.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>سأل</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> نفسي كل يوم ما هي الإجابة التي أعطونني !</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>سأل</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> نفسي كل يوم </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>ما هي الإجابة التي أعطونني</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> !</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">كل يوم </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>كنت أسأل</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> نفسي ماذا فعلت حتى يطردوني من العمل.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">كل يوم كنت أسأل نفسي ماذا </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>فعلت حتى يطردوني من العمل</t>
+      <t>تومين</t>
     </r>
     <r>
       <rPr>
@@ -2014,8 +1941,14 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">وقد هاجر العديد من </t>
+    <t>لذا أنت لست جائعا الآن.</t>
+  </si>
+  <si>
+    <t>فأنت لست جائعا الآن.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">أينما كنت، هذا هو </t>
     </r>
     <r>
       <rPr>
@@ -2024,7 +1957,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>الأكراد الأتراك</t>
+      <t>ألمك</t>
     </r>
     <r>
       <rPr>
@@ -2033,21 +1966,24 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> إلى إسطنبول.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">قد هاجر العديد من </t>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>هل وجدت وظيفة؟</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">تم </t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF00B050"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>أكراد تركيا</t>
+      <t>تجنيد</t>
     </r>
     <r>
       <rPr>
@@ -2056,12 +1992,527 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> إلى إسطنبول.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>وينبغي تنفيذ هذه</t>
+      <t xml:space="preserve"> اثنين آخرين أيضًا.</t>
+    </r>
+  </si>
+  <si>
+    <t>سيعودون في ثلاثة أيام.</t>
+  </si>
+  <si>
+    <t>إنهم يكسبون الكثير من المال لكن الحياة لا تهم.</t>
+  </si>
+  <si>
+    <t>نحن معه في المطار.</t>
+  </si>
+  <si>
+    <t>كنا معه في المطار.</t>
+  </si>
+  <si>
+    <r>
+      <t>أنت جالس</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ين</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> في السفارة أيضا.</t>
+    </r>
+  </si>
+  <si>
+    <t>أخذت هذه من المكتبة أيضاً.</t>
+  </si>
+  <si>
+    <t>حرف های بسیاری هست که باید گفته شود.</t>
+  </si>
+  <si>
+    <t>پدرش را سال ها قبل از دست داده بود.</t>
+  </si>
+  <si>
+    <t>كان قد فقد والده منذ سنوات.</t>
+  </si>
+  <si>
+    <t>در این مدت که همدیگر را ندیده ایم چه کتابی خوانده ای؟</t>
+  </si>
+  <si>
+    <t>في هذه الفترة التي لم نرى فيها بعضنا البعض، ما هي الكتب التي قرأتها؟</t>
+  </si>
+  <si>
+    <t>او در سال ۱۸۸۸ پسری به دنیا آورد.</t>
+  </si>
+  <si>
+    <t>أنجبت ولداً في عام 1888.</t>
+  </si>
+  <si>
+    <t>نظر شما در این مورد چیست؟</t>
+  </si>
+  <si>
+    <t>ما هو رأيك في هذا؟</t>
+  </si>
+  <si>
+    <t>خیلی از مردم دنباله کار اند.</t>
+  </si>
+  <si>
+    <t>كثير من الناس يبحثون عن عمل.</t>
+  </si>
+  <si>
+    <t>السكن والزراعة ممكنان فقط داخل الوديان.</t>
+  </si>
+  <si>
+    <t>متأسفانه همه چیز روسی نوشته شده.</t>
+  </si>
+  <si>
+    <t>لسوء الحظ، كل شيء مكتوب باللغة الروسية.</t>
+  </si>
+  <si>
+    <t>پاکی از همه چیز مهمتر است!</t>
+  </si>
+  <si>
+    <t>النقاء هو أهم شيء!</t>
+  </si>
+  <si>
+    <t>به طور معمول بارندگی در این کشور کم است.</t>
+  </si>
+  <si>
+    <t>عادة ، هناك القليل من الأمطار في هذا البلد.</t>
+  </si>
+  <si>
+    <t>جاء المدرب إليه برقية.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">قال أبي أيضًا </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>أن</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ه لا يوجد خطأ.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">جمع </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ندرشاه</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> القادة الرئيسيين من الشيعة والسنة.</t>
+    </r>
+  </si>
+  <si>
+    <t>يوجد ما مجموعه 78 مصعدًا في المبنيين.</t>
+  </si>
+  <si>
+    <t>سارع نحو المدينة.</t>
+  </si>
+  <si>
+    <t>يبدو أنه حوالي 40 أو 45 عامًا.</t>
+  </si>
+  <si>
+    <t>أعطاني الرقم.</t>
+  </si>
+  <si>
+    <t>سيكون هاتفك هو دليلك بغض النظر عن الوقت والمكان الذي تكون فيه في إيران.</t>
+  </si>
+  <si>
+    <t>شرب الرجل العجوز قليلاً من الصودا، وشربت زوجته قليلاً من نفس الكوب.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">من بين تلك الكتب، اخترت واحدة، حيث كان النص بسيطًا </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>نسبيًا</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>، وكان هناك عدد قليل نسبيًا من المصطلحات والمصطلحات الفنية.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>اختفى</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> دخان سجائره على وجهه.</t>
+    </r>
+  </si>
+  <si>
+    <t>هذا البلد لا يمتلك ممرا مائيا إلى المياه المفتوحة.</t>
+  </si>
+  <si>
+    <t>لا يوجد في البلاد مرور أزرق إلى أعالي البحار.</t>
+  </si>
+  <si>
+    <t>میتوانیم لیست بلند بالایی از داشته هامون تهیه کنیم.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">يمكننا أن </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>نضع سجلاتنا</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> في قائمة كبيرة.</t>
+    </r>
+  </si>
+  <si>
+    <t>این داده ها را در یک محل واحد جمع کردند.</t>
+  </si>
+  <si>
+    <t>تعتبر دببة الكوالا من أبطأ الحيوانات في العالم.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>يقومون</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> بجمع البيانات في موقع واحد.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">هناك الكثير </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>لقوله</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>لقد</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> فقدت والدها منذ سنوات.</t>
+    </r>
+  </si>
+  <si>
+    <t>ما الكتب التي قرأتها خلال هذه الفترة التي لم نلتقي؟</t>
+  </si>
+  <si>
+    <t>في عام 1888 أنجبت طفلاً.</t>
+  </si>
+  <si>
+    <t>ما رأيك في هذا؟</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">الكثير من الناس </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>مشغولون</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>تنها در داخل دره ها امکان سکونت و کشاورزی وجود دارد.</t>
+  </si>
+  <si>
+    <t>فقط داخل الوادي يمكن أن يعيش ويزرع.</t>
+  </si>
+  <si>
+    <t>التنظيف أكثر أهمية من أي شيء آخر !</t>
+  </si>
+  <si>
+    <t>عادة ما يكون هناك القليل من الأمطار في هذه البلاد.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>بيمان متعب.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">إنهم </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>يعتنون بالأطفال.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">أريد أن أتحدث مع </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>مريم.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">تركت </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>دنيا ألعابها للأطفال.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">كل يوم </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>كنت أسأل نفسي ماذا فعلت حتى يطردوني من العمل.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">كل يوم كنت أسأل نفسي ماذا </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>فعلت حتى يطردوني من العمل.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">قد هاجر العديد من </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>أكراد تركيا إلى إسطنبول.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>طلب</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> الإنسان الأول من الله المزيد من الملبس والطعام والمسكن.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">أينما كنت في العالم، </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>سيساعدك هذا.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">قاموا </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>بتعيين شخصين آخرين أيضا.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">هناك الكثير </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>من الكلام الذي يجب أن يقال.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">كان ينبغي تنفيذ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>كل واحدة منها.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>وينبغي</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> تنفيذ هذه</t>
     </r>
     <r>
       <rPr>
@@ -2083,8 +2534,11 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">وكان ينبغي تنفيذ </t>
+    <t>الناس العاديين يمكنهم الفوز.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">يمكن للأشخاص العاديين </t>
     </r>
     <r>
       <rPr>
@@ -2093,7 +2547,158 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>كل واحدة منها</t>
+      <t>أيضًا</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="178"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>الذهاب.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>عادة أنت تتحدث الإنجليزية</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> أكثر </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>بكثير</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> مني.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">عادة ما تتحدث الإنجليزية </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>أكثر</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> مني.</t>
+    </r>
+  </si>
+  <si>
+    <t>سوف يعودون في ثلاثة أيام.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>يقول</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="178"/>
+      </rPr>
+      <t xml:space="preserve"> إنهم يكسبون أموالاً جيدة، لكن الحياة ليس لها أهمية.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">أنت </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>جالسين</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> في السفارة أيضا.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">لقد جلست </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>أيضًا</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="178"/>
+      </rPr>
+      <t xml:space="preserve"> في سفارة هذا البلد.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">أنا أيضا </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>أحمق</t>
     </r>
     <r>
       <rPr>
@@ -2107,13 +2712,16 @@
   </si>
   <si>
     <r>
+      <t>قال أب</t>
+    </r>
+    <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>أول شخص</t>
+      <t>ي</t>
     </r>
     <r>
       <rPr>
@@ -2122,38 +2730,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> طلب من الله المزيد من المنزل والملابس والطعام.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>طلب</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> الإنسان الأول</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> من الله المزيد من الملبس والطعام والمسكن.</t>
-    </r>
-  </si>
-  <si>
-    <t>اكتشف إسحاق نيوتن الجاذبية التي سقطت على رأسه تفاحة.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">الناس العاديين يمكنهم </t>
+      <t xml:space="preserve"> أيضًا أنه </t>
     </r>
     <r>
       <rPr>
@@ -2162,7 +2739,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>الفوز</t>
+      <t>لا يوجد خطأ</t>
     </r>
     <r>
       <rPr>
@@ -2176,7 +2753,48 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">يمكن للأشخاص العاديين أيضًا </t>
+      <t xml:space="preserve">الدببة الكوالا هي </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>واحدة</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> من أبطأ الحيوانات في العالم.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>يقومون</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> بجمع البيانات في موقع واحد.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">جمعوا </t>
     </r>
     <r>
       <rPr>
@@ -2185,238 +2803,33 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>الذهاب</t>
+      <t>هذه</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="178"/>
       </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>لقد عاشوا هنا منذ أكثر من خمس سنوات.</t>
-  </si>
-  <si>
-    <t>بلغت ثلاثمائة تومان.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">وصل إلى ثلاثمائة </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>تومين</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>لذا أنت لست جائعا الآن.</t>
-  </si>
-  <si>
-    <t>فأنت لست جائعا الآن.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">أينما كنت، هذا هو </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>ألمك</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">أينما كنت في العالم، </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>سيساعدك</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> هذا.</t>
-    </r>
-  </si>
-  <si>
-    <t>هل وجدت وظيفة؟</t>
-  </si>
-  <si>
-    <r>
-      <t>عادة أنت تتحدث الإنجليزية</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> أكثر بكثير</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> مني.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">عادة ما تتحدث الإنجليزية </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>أكثر</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> مني.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">تم </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>تجنيد</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> اثنين آخرين أيضًا.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">قاموا </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>بتعيين</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> شخصين آخرين أيضا.</t>
-    </r>
-  </si>
-  <si>
-    <t>سيعودون في ثلاثة أيام.</t>
-  </si>
-  <si>
-    <t>إنهم يكسبون الكثير من المال لكن الحياة لا تهم.</t>
-  </si>
-  <si>
-    <t>نحن معه في المطار.</t>
-  </si>
-  <si>
-    <t>كنا معه في المطار.</t>
-  </si>
-  <si>
-    <r>
-      <t>أنت جالس</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>ين</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> في السفارة أيضا.</t>
-    </r>
-  </si>
-  <si>
-    <t>أخذت هذه من المكتبة أيضاً.</t>
+      <t xml:space="preserve"> البيانات في مكان واحد.</t>
+    </r>
+  </si>
+  <si>
+    <t>جمع نادر شاه كبار زعماء الشيعة والسنة معًا.</t>
+  </si>
+  <si>
+    <t>أنا بهائي أيضًا.</t>
+  </si>
+  <si>
+    <t>قال الأب أيضًا لا توجد مشكلة.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="45" x14ac:knownFonts="1">
+  <fonts count="48" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2688,8 +3101,26 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="178"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="178"/>
+    </font>
+    <font>
       <sz val="12"/>
-      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="178"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -2714,7 +3145,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="81">
+  <borders count="79">
     <border>
       <left/>
       <right/>
@@ -3654,37 +4085,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF003366"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color theme="3"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="239">
+  <cellXfs count="245">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -4011,20 +4416,36 @@
     <xf numFmtId="0" fontId="40" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4565,29 +4986,29 @@
     </row>
     <row r="2" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A2" s="1"/>
-      <c r="B2" s="186" t="s">
+      <c r="B2" s="192" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="185"/>
-      <c r="D2" s="185"/>
-      <c r="E2" s="185"/>
-      <c r="F2" s="185"/>
-      <c r="G2" s="185"/>
-      <c r="H2" s="185"/>
-      <c r="I2" s="185"/>
-      <c r="J2" s="185"/>
+      <c r="C2" s="191"/>
+      <c r="D2" s="191"/>
+      <c r="E2" s="191"/>
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="191"/>
+      <c r="I2" s="191"/>
+      <c r="J2" s="191"/>
       <c r="K2" s="2"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
-      <c r="B3" s="184" t="s">
+      <c r="B3" s="190" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="185"/>
-      <c r="D3" s="185"/>
-      <c r="E3" s="185"/>
-      <c r="F3" s="185"/>
+      <c r="C3" s="191"/>
+      <c r="D3" s="191"/>
+      <c r="E3" s="191"/>
+      <c r="F3" s="191"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -5245,10 +5666,10 @@
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="190" t="s">
+      <c r="A2" s="196" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="191"/>
+      <c r="B2" s="197"/>
       <c r="C2" s="129"/>
       <c r="D2" s="1"/>
       <c r="E2" s="8" t="s">
@@ -5266,10 +5687,10 @@
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="190" t="s">
+      <c r="A3" s="196" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="191"/>
+      <c r="B3" s="197"/>
       <c r="C3" s="129"/>
       <c r="D3" s="1"/>
       <c r="E3" s="14" t="s">
@@ -5287,18 +5708,18 @@
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="190" t="s">
+      <c r="A4" s="196" t="s">
         <v>270</v>
       </c>
-      <c r="B4" s="191"/>
+      <c r="B4" s="197"/>
       <c r="C4" s="129"/>
-      <c r="E4" s="201" t="s">
+      <c r="E4" s="207" t="s">
         <v>271</v>
       </c>
-      <c r="F4" s="202"/>
-      <c r="G4" s="202"/>
-      <c r="H4" s="202"/>
-      <c r="I4" s="202"/>
+      <c r="F4" s="208"/>
+      <c r="G4" s="208"/>
+      <c r="H4" s="208"/>
+      <c r="I4" s="208"/>
       <c r="J4" s="21"/>
       <c r="K4" s="170"/>
       <c r="L4" s="1"/>
@@ -5307,10 +5728,10 @@
       <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="190" t="s">
+      <c r="A5" s="196" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="191"/>
+      <c r="B5" s="197"/>
       <c r="C5" s="129"/>
       <c r="D5" s="111"/>
       <c r="E5" s="169" t="s">
@@ -5609,11 +6030,11 @@
     </row>
     <row r="20" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="112"/>
-      <c r="B20" s="192" t="s">
+      <c r="B20" s="198" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="185"/>
-      <c r="D20" s="185"/>
+      <c r="C20" s="191"/>
+      <c r="D20" s="191"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -5651,16 +6072,16 @@
       <c r="C22" s="139" t="s">
         <v>270</v>
       </c>
-      <c r="D22" s="193" t="s">
+      <c r="D22" s="199" t="s">
         <v>279</v>
       </c>
-      <c r="E22" s="194"/>
-      <c r="F22" s="195"/>
-      <c r="G22" s="193" t="s">
+      <c r="E22" s="200"/>
+      <c r="F22" s="201"/>
+      <c r="G22" s="199" t="s">
         <v>43</v>
       </c>
-      <c r="H22" s="194"/>
-      <c r="I22" s="195"/>
+      <c r="H22" s="200"/>
+      <c r="I22" s="201"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -5676,14 +6097,14 @@
       <c r="C23" s="140" t="s">
         <v>246</v>
       </c>
-      <c r="D23" s="196" t="s">
+      <c r="D23" s="202" t="s">
         <v>280</v>
       </c>
-      <c r="E23" s="197"/>
-      <c r="F23" s="197"/>
-      <c r="G23" s="203"/>
-      <c r="H23" s="197"/>
-      <c r="I23" s="204"/>
+      <c r="E23" s="203"/>
+      <c r="F23" s="203"/>
+      <c r="G23" s="209"/>
+      <c r="H23" s="203"/>
+      <c r="I23" s="210"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
@@ -5699,14 +6120,14 @@
       <c r="C24" s="141" t="s">
         <v>247</v>
       </c>
-      <c r="D24" s="198" t="s">
+      <c r="D24" s="204" t="s">
         <v>281</v>
       </c>
-      <c r="E24" s="199"/>
-      <c r="F24" s="200"/>
-      <c r="G24" s="187"/>
-      <c r="H24" s="188"/>
-      <c r="I24" s="189"/>
+      <c r="E24" s="205"/>
+      <c r="F24" s="206"/>
+      <c r="G24" s="193"/>
+      <c r="H24" s="194"/>
+      <c r="I24" s="195"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -5723,9 +6144,9 @@
         <v>248</v>
       </c>
       <c r="F25" s="122"/>
-      <c r="G25" s="187"/>
-      <c r="H25" s="188"/>
-      <c r="I25" s="189"/>
+      <c r="G25" s="193"/>
+      <c r="H25" s="194"/>
+      <c r="I25" s="195"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
@@ -5742,9 +6163,9 @@
         <v>249</v>
       </c>
       <c r="F26" s="122"/>
-      <c r="G26" s="187"/>
-      <c r="H26" s="188"/>
-      <c r="I26" s="189"/>
+      <c r="G26" s="193"/>
+      <c r="H26" s="194"/>
+      <c r="I26" s="195"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
@@ -5761,9 +6182,9 @@
         <v>250</v>
       </c>
       <c r="F27" s="122"/>
-      <c r="G27" s="187"/>
-      <c r="H27" s="188"/>
-      <c r="I27" s="189"/>
+      <c r="G27" s="193"/>
+      <c r="H27" s="194"/>
+      <c r="I27" s="195"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
@@ -5780,9 +6201,9 @@
         <v>251</v>
       </c>
       <c r="F28" s="122"/>
-      <c r="G28" s="187"/>
-      <c r="H28" s="188"/>
-      <c r="I28" s="189"/>
+      <c r="G28" s="193"/>
+      <c r="H28" s="194"/>
+      <c r="I28" s="195"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -5799,9 +6220,9 @@
         <v>252</v>
       </c>
       <c r="F29" s="122"/>
-      <c r="G29" s="187"/>
-      <c r="H29" s="188"/>
-      <c r="I29" s="189"/>
+      <c r="G29" s="193"/>
+      <c r="H29" s="194"/>
+      <c r="I29" s="195"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -5818,9 +6239,9 @@
         <v>253</v>
       </c>
       <c r="F30" s="122"/>
-      <c r="G30" s="187"/>
-      <c r="H30" s="188"/>
-      <c r="I30" s="189"/>
+      <c r="G30" s="193"/>
+      <c r="H30" s="194"/>
+      <c r="I30" s="195"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -5837,9 +6258,9 @@
         <v>254</v>
       </c>
       <c r="F31" s="122"/>
-      <c r="G31" s="187"/>
-      <c r="H31" s="188"/>
-      <c r="I31" s="189"/>
+      <c r="G31" s="193"/>
+      <c r="H31" s="194"/>
+      <c r="I31" s="195"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -5856,9 +6277,9 @@
         <v>255</v>
       </c>
       <c r="F32" s="122"/>
-      <c r="G32" s="187"/>
-      <c r="H32" s="188"/>
-      <c r="I32" s="189"/>
+      <c r="G32" s="193"/>
+      <c r="H32" s="194"/>
+      <c r="I32" s="195"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -5875,9 +6296,9 @@
         <v>256</v>
       </c>
       <c r="F33" s="122"/>
-      <c r="G33" s="187"/>
-      <c r="H33" s="188"/>
-      <c r="I33" s="189"/>
+      <c r="G33" s="193"/>
+      <c r="H33" s="194"/>
+      <c r="I33" s="195"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -5894,9 +6315,9 @@
         <v>257</v>
       </c>
       <c r="F34" s="122"/>
-      <c r="G34" s="187"/>
-      <c r="H34" s="188"/>
-      <c r="I34" s="189"/>
+      <c r="G34" s="193"/>
+      <c r="H34" s="194"/>
+      <c r="I34" s="195"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -5913,9 +6334,9 @@
         <v>258</v>
       </c>
       <c r="F35" s="122"/>
-      <c r="G35" s="187"/>
-      <c r="H35" s="188"/>
-      <c r="I35" s="189"/>
+      <c r="G35" s="193"/>
+      <c r="H35" s="194"/>
+      <c r="I35" s="195"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -5932,9 +6353,9 @@
         <v>259</v>
       </c>
       <c r="F36" s="122"/>
-      <c r="G36" s="187"/>
-      <c r="H36" s="188"/>
-      <c r="I36" s="189"/>
+      <c r="G36" s="193"/>
+      <c r="H36" s="194"/>
+      <c r="I36" s="195"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -5951,9 +6372,9 @@
         <v>260</v>
       </c>
       <c r="F37" s="122"/>
-      <c r="G37" s="205"/>
-      <c r="H37" s="199"/>
-      <c r="I37" s="200"/>
+      <c r="G37" s="211"/>
+      <c r="H37" s="205"/>
+      <c r="I37" s="206"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -6099,24 +6520,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AC106"/>
+  <dimension ref="A1:AC110"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:I68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.42578125" customWidth="1"/>
     <col min="2" max="2" width="28.140625" customWidth="1"/>
-    <col min="3" max="5" width="31.85546875" customWidth="1"/>
+    <col min="3" max="4" width="31.85546875" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" style="188" customWidth="1"/>
     <col min="6" max="6" width="23.85546875" customWidth="1"/>
     <col min="7" max="7" width="28.28515625" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
     <col min="9" max="9" width="13.85546875" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" customWidth="1"/>
-    <col min="11" max="11" width="16" customWidth="1"/>
-    <col min="12" max="12" width="19.140625" customWidth="1"/>
+    <col min="10" max="10" width="23" customWidth="1"/>
+    <col min="11" max="11" width="0.7109375" style="122" customWidth="1"/>
+    <col min="12" max="12" width="19.140625" style="122" customWidth="1"/>
     <col min="13" max="16" width="13.42578125" customWidth="1"/>
     <col min="17" max="17" width="18.28515625" customWidth="1"/>
     <col min="18" max="18" width="13.42578125" customWidth="1"/>
@@ -6131,14 +6553,12 @@
       <c r="B1" s="3"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="E1" s="182"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
       <c r="M1" s="7" t="s">
         <v>3</v>
       </c>
@@ -6174,7 +6594,7 @@
       <c r="D2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="183" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="15" t="s">
@@ -6192,19 +6612,13 @@
       <c r="J2" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="176" t="s">
-        <v>297</v>
-      </c>
-      <c r="L2" s="177" t="s">
-        <v>298</v>
-      </c>
-      <c r="M2" s="213" t="s">
+      <c r="M2" s="219" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="214"/>
-      <c r="O2" s="214"/>
-      <c r="P2" s="214"/>
-      <c r="Q2" s="215"/>
+      <c r="N2" s="220"/>
+      <c r="O2" s="220"/>
+      <c r="P2" s="220"/>
+      <c r="Q2" s="221"/>
       <c r="R2" s="17"/>
       <c r="S2" s="125" t="s">
         <v>33</v>
@@ -6224,33 +6638,34 @@
       <c r="A3" s="20">
         <v>1</v>
       </c>
-      <c r="B3" s="180"/>
+      <c r="B3" s="176">
+        <v>1</v>
+      </c>
       <c r="C3" s="27" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>381</v>
-      </c>
-      <c r="E3" s="27" t="s">
-        <v>300</v>
+        <v>369</v>
+      </c>
+      <c r="E3" s="184" t="s">
+        <v>298</v>
       </c>
       <c r="F3" s="28"/>
       <c r="G3" s="48"/>
       <c r="H3" s="28"/>
       <c r="I3" s="28"/>
       <c r="J3" s="50"/>
-      <c r="K3" s="178" t="str">
-        <f t="shared" ref="K3:K67" si="0">CONCATENATE(F3,I3)</f>
+      <c r="K3" s="122" t="str">
+        <f t="shared" ref="K3:K71" si="0">CONCATENATE(F3,I3)</f>
         <v/>
       </c>
-      <c r="L3" s="179"/>
-      <c r="M3" s="206" t="s">
+      <c r="M3" s="212" t="s">
         <v>71</v>
       </c>
-      <c r="N3" s="207"/>
-      <c r="O3" s="207"/>
-      <c r="P3" s="207"/>
-      <c r="Q3" s="208"/>
+      <c r="N3" s="213"/>
+      <c r="O3" s="213"/>
+      <c r="P3" s="213"/>
+      <c r="Q3" s="214"/>
       <c r="R3" s="17"/>
       <c r="S3" s="160" t="s">
         <v>273</v>
@@ -6267,19 +6682,20 @@
       <c r="AC3" s="1"/>
     </row>
     <row r="4" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="70">
-        <f t="shared" ref="A4:A68" si="1">A3+1</f>
+      <c r="A4" s="20">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
+      <c r="B4" s="176">
+        <v>2</v>
+      </c>
       <c r="C4" s="78" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D4" s="78" t="s">
-        <v>387</v>
-      </c>
-      <c r="E4" s="78" t="s">
-        <v>385</v>
+        <v>373</v>
+      </c>
+      <c r="E4" s="185" t="s">
+        <v>449</v>
       </c>
       <c r="F4" s="79" t="s">
         <v>83</v>
@@ -6292,18 +6708,17 @@
         <v>291</v>
       </c>
       <c r="J4" s="85"/>
-      <c r="K4" s="178" t="str">
+      <c r="K4" s="122" t="str">
         <f t="shared" si="0"/>
         <v>AccuracyMajor</v>
       </c>
-      <c r="L4" s="179"/>
-      <c r="M4" s="206" t="s">
+      <c r="M4" s="212" t="s">
         <v>95</v>
       </c>
-      <c r="N4" s="207"/>
-      <c r="O4" s="207"/>
-      <c r="P4" s="207"/>
-      <c r="Q4" s="208"/>
+      <c r="N4" s="213"/>
+      <c r="O4" s="213"/>
+      <c r="P4" s="213"/>
+      <c r="Q4" s="214"/>
       <c r="R4" s="17"/>
       <c r="S4" s="18" t="s">
         <v>50</v>
@@ -6320,19 +6735,20 @@
       <c r="AC4" s="1"/>
     </row>
     <row r="5" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="70">
-        <f t="shared" si="1"/>
+      <c r="A5" s="20">
         <v>3</v>
       </c>
-      <c r="B5" s="181"/>
+      <c r="B5" s="176">
+        <v>3</v>
+      </c>
       <c r="C5" s="78" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D5" s="78" t="s">
-        <v>388</v>
-      </c>
-      <c r="E5" s="78" t="s">
-        <v>386</v>
+        <v>374</v>
+      </c>
+      <c r="E5" s="185" t="s">
+        <v>450</v>
       </c>
       <c r="F5" s="79" t="s">
         <v>83</v>
@@ -6342,21 +6758,20 @@
       </c>
       <c r="H5" s="79"/>
       <c r="I5" s="79" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="J5" s="85"/>
-      <c r="K5" s="178" t="str">
+      <c r="K5" s="122" t="str">
         <f t="shared" si="0"/>
-        <v>AccuracyMinor</v>
-      </c>
-      <c r="L5" s="179"/>
-      <c r="M5" s="206" t="s">
+        <v>AccuracyMajor</v>
+      </c>
+      <c r="M5" s="212" t="s">
         <v>96</v>
       </c>
-      <c r="N5" s="207"/>
-      <c r="O5" s="207"/>
-      <c r="P5" s="207"/>
-      <c r="Q5" s="208"/>
+      <c r="N5" s="213"/>
+      <c r="O5" s="213"/>
+      <c r="P5" s="213"/>
+      <c r="Q5" s="214"/>
       <c r="R5" s="88"/>
       <c r="S5" s="18" t="s">
         <v>97</v>
@@ -6373,37 +6788,37 @@
       <c r="AC5" s="1"/>
     </row>
     <row r="6" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="70">
-        <f t="shared" si="1"/>
+      <c r="A6" s="20">
         <v>4</v>
       </c>
-      <c r="B6" s="181"/>
+      <c r="B6" s="176">
+        <v>4</v>
+      </c>
       <c r="C6" s="78" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D6" s="78" t="s">
-        <v>382</v>
-      </c>
-      <c r="E6" s="78" t="s">
-        <v>382</v>
+        <v>370</v>
+      </c>
+      <c r="E6" s="185" t="s">
+        <v>370</v>
       </c>
       <c r="F6" s="79"/>
       <c r="G6" s="79"/>
       <c r="H6" s="79"/>
       <c r="I6" s="79"/>
       <c r="J6" s="85"/>
-      <c r="K6" s="178" t="str">
+      <c r="K6" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L6" s="179"/>
-      <c r="M6" s="206" t="s">
+      <c r="M6" s="212" t="s">
         <v>99</v>
       </c>
-      <c r="N6" s="207"/>
-      <c r="O6" s="207"/>
-      <c r="P6" s="207"/>
-      <c r="Q6" s="208"/>
+      <c r="N6" s="213"/>
+      <c r="O6" s="213"/>
+      <c r="P6" s="213"/>
+      <c r="Q6" s="214"/>
       <c r="R6" s="1"/>
       <c r="S6" s="160" t="s">
         <v>275</v>
@@ -6420,35 +6835,35 @@
       <c r="AC6" s="1"/>
     </row>
     <row r="7" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="70">
-        <f t="shared" si="1"/>
+      <c r="A7" s="20">
         <v>5</v>
       </c>
-      <c r="B7" s="181"/>
+      <c r="B7" s="176">
+        <v>5</v>
+      </c>
       <c r="C7" s="78" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D7" s="78" t="s">
-        <v>383</v>
-      </c>
-      <c r="E7" s="78" t="s">
-        <v>305</v>
+        <v>371</v>
+      </c>
+      <c r="E7" s="185" t="s">
+        <v>303</v>
       </c>
       <c r="F7" s="79"/>
       <c r="G7" s="79"/>
       <c r="H7" s="79"/>
       <c r="I7" s="79"/>
       <c r="J7" s="85"/>
-      <c r="K7" s="178" t="str">
+      <c r="K7" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L7" s="179"/>
-      <c r="M7" s="209"/>
-      <c r="N7" s="207"/>
-      <c r="O7" s="207"/>
-      <c r="P7" s="207"/>
-      <c r="Q7" s="208"/>
+      <c r="M7" s="215"/>
+      <c r="N7" s="213"/>
+      <c r="O7" s="213"/>
+      <c r="P7" s="213"/>
+      <c r="Q7" s="214"/>
       <c r="R7" s="88"/>
       <c r="S7" s="160" t="s">
         <v>276</v>
@@ -6465,37 +6880,37 @@
       <c r="AC7" s="1"/>
     </row>
     <row r="8" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="70">
-        <f t="shared" si="1"/>
+      <c r="A8" s="20">
         <v>6</v>
       </c>
-      <c r="B8" s="181"/>
+      <c r="B8" s="176">
+        <v>6</v>
+      </c>
       <c r="C8" s="78" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D8" s="78" t="s">
-        <v>384</v>
-      </c>
-      <c r="E8" s="78" t="s">
-        <v>307</v>
+        <v>372</v>
+      </c>
+      <c r="E8" s="185" t="s">
+        <v>372</v>
       </c>
       <c r="F8" s="79"/>
       <c r="G8" s="79"/>
       <c r="H8" s="79"/>
       <c r="I8" s="79"/>
       <c r="J8" s="85"/>
-      <c r="K8" s="178" t="str">
+      <c r="K8" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L8" s="179"/>
-      <c r="M8" s="206" t="s">
+      <c r="M8" s="212" t="s">
         <v>100</v>
       </c>
-      <c r="N8" s="207"/>
-      <c r="O8" s="207"/>
-      <c r="P8" s="207"/>
-      <c r="Q8" s="208"/>
+      <c r="N8" s="213"/>
+      <c r="O8" s="213"/>
+      <c r="P8" s="213"/>
+      <c r="Q8" s="214"/>
       <c r="R8" s="88"/>
       <c r="S8" s="160" t="s">
         <v>277</v>
@@ -6512,19 +6927,20 @@
       <c r="AC8" s="1"/>
     </row>
     <row r="9" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="70">
-        <f t="shared" si="1"/>
+      <c r="A9" s="20">
         <v>7</v>
       </c>
-      <c r="B9" s="181"/>
+      <c r="B9" s="176">
+        <v>7</v>
+      </c>
       <c r="C9" s="78" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D9" s="78" t="s">
-        <v>389</v>
-      </c>
-      <c r="E9" s="78" t="s">
-        <v>309</v>
+        <v>375</v>
+      </c>
+      <c r="E9" s="185" t="s">
+        <v>306</v>
       </c>
       <c r="F9" s="79" t="s">
         <v>83</v>
@@ -6537,16 +6953,15 @@
         <v>294</v>
       </c>
       <c r="J9" s="85"/>
-      <c r="K9" s="178" t="str">
+      <c r="K9" s="122" t="str">
         <f t="shared" si="0"/>
         <v>AccuracyMinor</v>
       </c>
-      <c r="L9" s="179"/>
-      <c r="M9" s="209"/>
-      <c r="N9" s="207"/>
-      <c r="O9" s="207"/>
-      <c r="P9" s="207"/>
-      <c r="Q9" s="208"/>
+      <c r="M9" s="215"/>
+      <c r="N9" s="213"/>
+      <c r="O9" s="213"/>
+      <c r="P9" s="213"/>
+      <c r="Q9" s="214"/>
       <c r="R9" s="1"/>
       <c r="S9" s="161" t="s">
         <v>109</v>
@@ -6563,19 +6978,20 @@
       <c r="AC9" s="1"/>
     </row>
     <row r="10" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="70">
-        <f t="shared" si="1"/>
+      <c r="A10" s="20">
         <v>8</v>
       </c>
-      <c r="B10" s="181"/>
+      <c r="B10" s="176">
+        <v>8</v>
+      </c>
       <c r="C10" s="78" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D10" s="78" t="s">
-        <v>390</v>
-      </c>
-      <c r="E10" s="78" t="s">
-        <v>391</v>
+        <v>376</v>
+      </c>
+      <c r="E10" s="185" t="s">
+        <v>451</v>
       </c>
       <c r="F10" s="79" t="s">
         <v>83</v>
@@ -6588,18 +7004,17 @@
         <v>291</v>
       </c>
       <c r="J10" s="85"/>
-      <c r="K10" s="178" t="str">
+      <c r="K10" s="122" t="str">
         <f t="shared" si="0"/>
         <v>AccuracyMajor</v>
       </c>
-      <c r="L10" s="179"/>
-      <c r="M10" s="206" t="s">
+      <c r="M10" s="212" t="s">
         <v>104</v>
       </c>
-      <c r="N10" s="207"/>
-      <c r="O10" s="207"/>
-      <c r="P10" s="207"/>
-      <c r="Q10" s="208"/>
+      <c r="N10" s="213"/>
+      <c r="O10" s="213"/>
+      <c r="P10" s="213"/>
+      <c r="Q10" s="214"/>
       <c r="R10" s="17"/>
       <c r="S10" s="21"/>
       <c r="T10" s="1"/>
@@ -6614,35 +7029,35 @@
       <c r="AC10" s="1"/>
     </row>
     <row r="11" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="70">
-        <f t="shared" si="1"/>
+      <c r="A11" s="20">
         <v>9</v>
       </c>
-      <c r="B11" s="181"/>
+      <c r="B11" s="176">
+        <v>9</v>
+      </c>
       <c r="C11" s="78" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D11" s="78" t="s">
-        <v>392</v>
-      </c>
-      <c r="E11" s="78" t="s">
-        <v>312</v>
+        <v>377</v>
+      </c>
+      <c r="E11" s="185" t="s">
+        <v>309</v>
       </c>
       <c r="F11" s="79"/>
       <c r="G11" s="79"/>
       <c r="H11" s="79"/>
       <c r="I11" s="79"/>
       <c r="J11" s="85"/>
-      <c r="K11" s="178" t="str">
+      <c r="K11" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L11" s="179"/>
-      <c r="M11" s="209"/>
-      <c r="N11" s="207"/>
-      <c r="O11" s="207"/>
-      <c r="P11" s="207"/>
-      <c r="Q11" s="208"/>
+      <c r="M11" s="215"/>
+      <c r="N11" s="213"/>
+      <c r="O11" s="213"/>
+      <c r="P11" s="213"/>
+      <c r="Q11" s="214"/>
       <c r="R11" s="17"/>
       <c r="S11" s="21"/>
       <c r="T11" s="1"/>
@@ -6657,19 +7072,20 @@
       <c r="AC11" s="1"/>
     </row>
     <row r="12" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="70">
-        <f t="shared" si="1"/>
+      <c r="A12" s="20">
         <v>10</v>
       </c>
-      <c r="B12" s="181"/>
+      <c r="B12" s="176">
+        <v>10</v>
+      </c>
       <c r="C12" s="78" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D12" s="78" t="s">
-        <v>394</v>
-      </c>
-      <c r="E12" s="78" t="s">
-        <v>393</v>
+        <v>378</v>
+      </c>
+      <c r="E12" s="185" t="s">
+        <v>452</v>
       </c>
       <c r="F12" s="79" t="s">
         <v>83</v>
@@ -6682,18 +7098,17 @@
         <v>291</v>
       </c>
       <c r="J12" s="85"/>
-      <c r="K12" s="178" t="str">
+      <c r="K12" s="122" t="str">
         <f t="shared" si="0"/>
         <v>AccuracyMajor</v>
       </c>
-      <c r="L12" s="179"/>
-      <c r="M12" s="206" t="s">
+      <c r="M12" s="212" t="s">
         <v>108</v>
       </c>
-      <c r="N12" s="207"/>
-      <c r="O12" s="207"/>
-      <c r="P12" s="207"/>
-      <c r="Q12" s="208"/>
+      <c r="N12" s="213"/>
+      <c r="O12" s="213"/>
+      <c r="P12" s="213"/>
+      <c r="Q12" s="214"/>
       <c r="R12" s="88"/>
       <c r="S12" s="21"/>
       <c r="T12" s="1"/>
@@ -6708,19 +7123,20 @@
       <c r="AC12" s="1"/>
     </row>
     <row r="13" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="70">
-        <f t="shared" si="1"/>
+      <c r="A13" s="20">
         <v>11</v>
       </c>
-      <c r="B13" s="181"/>
+      <c r="B13" s="176">
+        <v>11</v>
+      </c>
       <c r="C13" s="78" t="s">
-        <v>314</v>
-      </c>
-      <c r="D13" s="182" t="s">
-        <v>395</v>
-      </c>
-      <c r="E13" s="78" t="s">
-        <v>315</v>
+        <v>311</v>
+      </c>
+      <c r="D13" s="177" t="s">
+        <v>379</v>
+      </c>
+      <c r="E13" s="185" t="s">
+        <v>312</v>
       </c>
       <c r="F13" s="79" t="s">
         <v>139</v>
@@ -6731,16 +7147,15 @@
         <v>291</v>
       </c>
       <c r="J13" s="85"/>
-      <c r="K13" s="178" t="str">
+      <c r="K13" s="122" t="str">
         <f t="shared" si="0"/>
         <v>FluencyMajor</v>
       </c>
-      <c r="L13" s="179"/>
-      <c r="M13" s="210"/>
-      <c r="N13" s="211"/>
-      <c r="O13" s="211"/>
-      <c r="P13" s="211"/>
-      <c r="Q13" s="212"/>
+      <c r="M13" s="216"/>
+      <c r="N13" s="217"/>
+      <c r="O13" s="217"/>
+      <c r="P13" s="217"/>
+      <c r="Q13" s="218"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -6755,30 +7170,30 @@
       <c r="AC13" s="1"/>
     </row>
     <row r="14" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="70">
-        <f t="shared" si="1"/>
+      <c r="A14" s="20">
         <v>12</v>
       </c>
-      <c r="B14" s="181"/>
+      <c r="B14" s="176">
+        <v>12</v>
+      </c>
       <c r="C14" s="78" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D14" s="78" t="s">
-        <v>396</v>
-      </c>
-      <c r="E14" s="78" t="s">
-        <v>317</v>
+        <v>380</v>
+      </c>
+      <c r="E14" s="185" t="s">
+        <v>314</v>
       </c>
       <c r="F14" s="79"/>
       <c r="G14" s="79"/>
       <c r="H14" s="79"/>
       <c r="I14" s="79"/>
       <c r="J14" s="85"/>
-      <c r="K14" s="178" t="str">
+      <c r="K14" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L14" s="179"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -6798,19 +7213,20 @@
       <c r="AC14" s="1"/>
     </row>
     <row r="15" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="70">
-        <f t="shared" si="1"/>
+      <c r="A15" s="20">
         <v>13</v>
       </c>
-      <c r="B15" s="181"/>
+      <c r="B15" s="176">
+        <v>13</v>
+      </c>
       <c r="C15" s="78" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D15" s="78" t="s">
-        <v>397</v>
-      </c>
-      <c r="E15" s="78" t="s">
-        <v>319</v>
+        <v>381</v>
+      </c>
+      <c r="E15" s="185" t="s">
+        <v>316</v>
       </c>
       <c r="F15" s="79" t="s">
         <v>139</v>
@@ -6823,11 +7239,10 @@
         <v>294</v>
       </c>
       <c r="J15" s="85"/>
-      <c r="K15" s="178" t="str">
+      <c r="K15" s="122" t="str">
         <f t="shared" si="0"/>
         <v>FluencyMinor</v>
       </c>
-      <c r="L15" s="179"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -6847,30 +7262,30 @@
       <c r="AC15" s="1"/>
     </row>
     <row r="16" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="70">
-        <f t="shared" si="1"/>
+      <c r="A16" s="20">
         <v>14</v>
       </c>
-      <c r="B16" s="181"/>
+      <c r="B16" s="176">
+        <v>14</v>
+      </c>
       <c r="C16" s="78" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D16" s="78" t="s">
-        <v>321</v>
-      </c>
-      <c r="E16" s="78" t="s">
-        <v>321</v>
+        <v>318</v>
+      </c>
+      <c r="E16" s="185" t="s">
+        <v>318</v>
       </c>
       <c r="F16" s="79"/>
       <c r="G16" s="79"/>
       <c r="H16" s="79"/>
       <c r="I16" s="79"/>
       <c r="J16" s="85"/>
-      <c r="K16" s="178" t="str">
+      <c r="K16" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L16" s="179"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
@@ -6890,30 +7305,30 @@
       <c r="AC16" s="1"/>
     </row>
     <row r="17" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="70">
-        <f t="shared" si="1"/>
+      <c r="A17" s="20">
         <v>15</v>
       </c>
-      <c r="B17" s="181"/>
+      <c r="B17" s="176">
+        <v>15</v>
+      </c>
       <c r="C17" s="78" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D17" s="78" t="s">
-        <v>323</v>
-      </c>
-      <c r="E17" s="78" t="s">
-        <v>323</v>
+        <v>320</v>
+      </c>
+      <c r="E17" s="185" t="s">
+        <v>320</v>
       </c>
       <c r="F17" s="79"/>
       <c r="G17" s="79"/>
       <c r="H17" s="79"/>
       <c r="I17" s="79"/>
       <c r="J17" s="85"/>
-      <c r="K17" s="178" t="str">
+      <c r="K17" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L17" s="179"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
@@ -6933,30 +7348,30 @@
       <c r="AC17" s="1"/>
     </row>
     <row r="18" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="70">
-        <f t="shared" si="1"/>
+      <c r="A18" s="20">
         <v>16</v>
       </c>
-      <c r="B18" s="181"/>
+      <c r="B18" s="176">
+        <v>16</v>
+      </c>
       <c r="C18" s="78" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D18" s="78" t="s">
-        <v>398</v>
-      </c>
-      <c r="E18" s="78" t="s">
-        <v>325</v>
+        <v>382</v>
+      </c>
+      <c r="E18" s="185" t="s">
+        <v>322</v>
       </c>
       <c r="F18" s="79"/>
       <c r="G18" s="79"/>
       <c r="H18" s="79"/>
       <c r="I18" s="79"/>
       <c r="J18" s="85"/>
-      <c r="K18" s="178" t="str">
+      <c r="K18" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L18" s="179"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
@@ -6976,19 +7391,20 @@
       <c r="AC18" s="1"/>
     </row>
     <row r="19" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="70">
-        <f t="shared" si="1"/>
+      <c r="A19" s="20">
         <v>17</v>
       </c>
-      <c r="B19" s="181"/>
+      <c r="B19" s="176">
+        <v>17</v>
+      </c>
       <c r="C19" s="78" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D19" s="78" t="s">
-        <v>399</v>
-      </c>
-      <c r="E19" s="78" t="s">
-        <v>401</v>
+        <v>383</v>
+      </c>
+      <c r="E19" s="185" t="s">
+        <v>453</v>
       </c>
       <c r="F19" s="79" t="s">
         <v>83</v>
@@ -6998,14 +7414,13 @@
       </c>
       <c r="H19" s="79"/>
       <c r="I19" s="79" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="J19" s="85"/>
-      <c r="K19" s="178" t="str">
+      <c r="K19" s="122" t="str">
         <f t="shared" si="0"/>
-        <v>AccuracyMinor</v>
-      </c>
-      <c r="L19" s="179"/>
+        <v>AccuracyMajor</v>
+      </c>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
@@ -7025,14 +7440,18 @@
       <c r="AC19" s="1"/>
     </row>
     <row r="20" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="70"/>
-      <c r="B20" s="181"/>
+      <c r="A20" s="20">
+        <v>18</v>
+      </c>
+      <c r="B20" s="176">
+        <v>17</v>
+      </c>
       <c r="C20" s="78"/>
       <c r="D20" s="78" t="s">
-        <v>400</v>
-      </c>
-      <c r="E20" s="78" t="s">
-        <v>402</v>
+        <v>384</v>
+      </c>
+      <c r="E20" s="185" t="s">
+        <v>454</v>
       </c>
       <c r="F20" s="79" t="s">
         <v>83</v>
@@ -7045,8 +7464,6 @@
         <v>291</v>
       </c>
       <c r="J20" s="85"/>
-      <c r="K20" s="178"/>
-      <c r="L20" s="179"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
@@ -7066,19 +7483,20 @@
       <c r="AC20" s="1"/>
     </row>
     <row r="21" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="70">
-        <f>A19+1</f>
+      <c r="A21" s="20">
+        <v>19</v>
+      </c>
+      <c r="B21" s="176">
         <v>18</v>
       </c>
-      <c r="B21" s="181"/>
       <c r="C21" s="78" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D21" s="78" t="s">
-        <v>403</v>
-      </c>
-      <c r="E21" s="78" t="s">
-        <v>404</v>
+        <v>385</v>
+      </c>
+      <c r="E21" s="185" t="s">
+        <v>455</v>
       </c>
       <c r="F21" s="79" t="s">
         <v>83</v>
@@ -7091,11 +7509,10 @@
         <v>291</v>
       </c>
       <c r="J21" s="85"/>
-      <c r="K21" s="178" t="str">
+      <c r="K21" s="122" t="str">
         <f t="shared" si="0"/>
         <v>AccuracyMajor</v>
       </c>
-      <c r="L21" s="179"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
@@ -7115,19 +7532,20 @@
       <c r="AC21" s="1"/>
     </row>
     <row r="22" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="70">
-        <f t="shared" si="1"/>
+      <c r="A22" s="20">
+        <v>20</v>
+      </c>
+      <c r="B22" s="176">
         <v>19</v>
       </c>
-      <c r="B22" s="181"/>
       <c r="C22" s="78" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D22" s="78" t="s">
-        <v>405</v>
-      </c>
-      <c r="E22" s="78" t="s">
-        <v>406</v>
+        <v>461</v>
+      </c>
+      <c r="E22" s="185" t="s">
+        <v>460</v>
       </c>
       <c r="F22" s="79" t="s">
         <v>83</v>
@@ -7140,11 +7558,10 @@
         <v>294</v>
       </c>
       <c r="J22" s="85"/>
-      <c r="K22" s="178" t="str">
+      <c r="K22" s="122" t="str">
         <f t="shared" si="0"/>
         <v>AccuracyMinor</v>
       </c>
-      <c r="L22" s="179"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
@@ -7164,19 +7581,20 @@
       <c r="AC22" s="1"/>
     </row>
     <row r="23" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="70">
-        <f t="shared" si="1"/>
+      <c r="A23" s="20">
+        <v>21</v>
+      </c>
+      <c r="B23" s="176">
         <v>20</v>
       </c>
-      <c r="B23" s="181"/>
       <c r="C23" s="78" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D23" s="78" t="s">
-        <v>407</v>
-      </c>
-      <c r="E23" s="78" t="s">
-        <v>408</v>
+        <v>386</v>
+      </c>
+      <c r="E23" s="185" t="s">
+        <v>456</v>
       </c>
       <c r="F23" s="79" t="s">
         <v>83</v>
@@ -7189,11 +7607,10 @@
         <v>294</v>
       </c>
       <c r="J23" s="85"/>
-      <c r="K23" s="178" t="str">
+      <c r="K23" s="122" t="str">
         <f t="shared" si="0"/>
         <v>AccuracyMinor</v>
       </c>
-      <c r="L23" s="179"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
@@ -7213,19 +7630,20 @@
       <c r="AC23" s="1"/>
     </row>
     <row r="24" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="70">
-        <f t="shared" si="1"/>
+      <c r="A24" s="20">
+        <v>22</v>
+      </c>
+      <c r="B24" s="176">
         <v>21</v>
       </c>
-      <c r="B24" s="181"/>
       <c r="C24" s="78" t="s">
-        <v>330</v>
-      </c>
-      <c r="D24" s="182" t="s">
-        <v>409</v>
-      </c>
-      <c r="E24" s="78" t="s">
-        <v>331</v>
+        <v>327</v>
+      </c>
+      <c r="D24" s="177" t="s">
+        <v>387</v>
+      </c>
+      <c r="E24" s="185" t="s">
+        <v>328</v>
       </c>
       <c r="F24" s="79" t="s">
         <v>139</v>
@@ -7236,11 +7654,10 @@
         <v>291</v>
       </c>
       <c r="J24" s="85"/>
-      <c r="K24" s="178" t="str">
+      <c r="K24" s="122" t="str">
         <f t="shared" si="0"/>
         <v>FluencyMajor</v>
       </c>
-      <c r="L24" s="179"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
@@ -7260,30 +7677,30 @@
       <c r="AC24" s="1"/>
     </row>
     <row r="25" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="70">
-        <f t="shared" si="1"/>
+      <c r="A25" s="20">
+        <v>23</v>
+      </c>
+      <c r="B25" s="176">
         <v>22</v>
       </c>
-      <c r="B25" s="181"/>
       <c r="C25" s="78" t="s">
-        <v>332</v>
-      </c>
-      <c r="D25" s="183" t="s">
-        <v>412</v>
-      </c>
-      <c r="E25" s="78" t="s">
-        <v>333</v>
+        <v>329</v>
+      </c>
+      <c r="D25" s="178" t="s">
+        <v>389</v>
+      </c>
+      <c r="E25" s="185" t="s">
+        <v>330</v>
       </c>
       <c r="F25" s="79"/>
       <c r="G25" s="79"/>
       <c r="H25" s="79"/>
       <c r="I25" s="79"/>
       <c r="J25" s="85"/>
-      <c r="K25" s="178" t="str">
+      <c r="K25" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L25" s="179"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
@@ -7303,19 +7720,20 @@
       <c r="AC25" s="1"/>
     </row>
     <row r="26" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="70">
-        <f t="shared" si="1"/>
+      <c r="A26" s="20">
+        <v>24</v>
+      </c>
+      <c r="B26" s="176">
         <v>23</v>
       </c>
-      <c r="B26" s="181"/>
       <c r="C26" s="78" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D26" s="78" t="s">
-        <v>410</v>
-      </c>
-      <c r="E26" s="78" t="s">
-        <v>411</v>
+        <v>388</v>
+      </c>
+      <c r="E26" s="185" t="s">
+        <v>463</v>
       </c>
       <c r="F26" s="79" t="s">
         <v>83</v>
@@ -7328,11 +7746,10 @@
         <v>291</v>
       </c>
       <c r="J26" s="85"/>
-      <c r="K26" s="178" t="str">
+      <c r="K26" s="122" t="str">
         <f t="shared" si="0"/>
         <v>AccuracyMajor</v>
       </c>
-      <c r="L26" s="179"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
@@ -7352,47 +7769,35 @@
       <c r="AC26" s="1"/>
     </row>
     <row r="27" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="70">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="B27" s="181"/>
-      <c r="C27" s="78" t="s">
-        <v>335</v>
-      </c>
-      <c r="D27" s="78" t="s">
-        <v>414</v>
-      </c>
-      <c r="E27" s="78" t="s">
-        <v>413</v>
-      </c>
+      <c r="A27" s="20">
+        <v>25</v>
+      </c>
+      <c r="B27" s="176">
+        <v>23</v>
+      </c>
+      <c r="C27" s="78"/>
+      <c r="D27" s="189" t="s">
+        <v>462</v>
+      </c>
+      <c r="E27" s="185"/>
       <c r="F27" s="79" t="s">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="G27" s="79" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="H27" s="79"/>
       <c r="I27" s="79" t="s">
         <v>294</v>
       </c>
       <c r="J27" s="85"/>
-      <c r="K27" s="178" t="str">
-        <f t="shared" si="0"/>
-        <v>FluencyMinor</v>
-      </c>
-      <c r="L27" s="179"/>
-      <c r="M27" s="206" t="s">
-        <v>95</v>
-      </c>
-      <c r="N27" s="207"/>
-      <c r="O27" s="207"/>
-      <c r="P27" s="207"/>
-      <c r="Q27" s="208"/>
-      <c r="R27" s="17"/>
-      <c r="S27" s="18" t="s">
-        <v>50</v>
-      </c>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
@@ -7405,40 +7810,46 @@
       <c r="AC27" s="1"/>
     </row>
     <row r="28" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="70">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="B28" s="181"/>
+      <c r="A28" s="20">
+        <v>26</v>
+      </c>
+      <c r="B28" s="176">
+        <v>24</v>
+      </c>
       <c r="C28" s="78" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D28" s="78" t="s">
-        <v>415</v>
-      </c>
-      <c r="E28" s="78" t="s">
-        <v>416</v>
-      </c>
-      <c r="F28" s="79"/>
-      <c r="G28" s="79"/>
+        <v>391</v>
+      </c>
+      <c r="E28" s="185" t="s">
+        <v>390</v>
+      </c>
+      <c r="F28" s="79" t="s">
+        <v>139</v>
+      </c>
+      <c r="G28" s="79" t="s">
+        <v>141</v>
+      </c>
       <c r="H28" s="79"/>
-      <c r="I28" s="79"/>
+      <c r="I28" s="79" t="s">
+        <v>294</v>
+      </c>
       <c r="J28" s="85"/>
-      <c r="K28" s="178" t="str">
+      <c r="K28" s="122" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L28" s="179"/>
-      <c r="M28" s="206" t="s">
-        <v>96</v>
-      </c>
-      <c r="N28" s="207"/>
-      <c r="O28" s="207"/>
-      <c r="P28" s="207"/>
-      <c r="Q28" s="208"/>
-      <c r="R28" s="88"/>
+        <v>FluencyMinor</v>
+      </c>
+      <c r="M28" s="212" t="s">
+        <v>95</v>
+      </c>
+      <c r="N28" s="213"/>
+      <c r="O28" s="213"/>
+      <c r="P28" s="213"/>
+      <c r="Q28" s="214"/>
+      <c r="R28" s="17"/>
       <c r="S28" s="18" t="s">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
@@ -7451,47 +7862,41 @@
       <c r="AB28" s="1"/>
       <c r="AC28" s="1"/>
     </row>
-    <row r="29" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="70">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="B29" s="181"/>
+    <row r="29" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="20">
+        <v>27</v>
+      </c>
+      <c r="B29" s="176">
+        <v>25</v>
+      </c>
       <c r="C29" s="78" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D29" s="78" t="s">
-        <v>417</v>
-      </c>
-      <c r="E29" s="78" t="s">
-        <v>418</v>
-      </c>
-      <c r="F29" s="79" t="s">
-        <v>83</v>
-      </c>
-      <c r="G29" s="79" t="s">
-        <v>121</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="E29" s="185" t="s">
+        <v>393</v>
+      </c>
+      <c r="F29" s="79"/>
+      <c r="G29" s="79"/>
       <c r="H29" s="79"/>
-      <c r="I29" s="79" t="s">
-        <v>291</v>
-      </c>
+      <c r="I29" s="79"/>
       <c r="J29" s="85"/>
-      <c r="K29" s="178" t="str">
+      <c r="K29" s="122" t="str">
         <f t="shared" si="0"/>
-        <v>AccuracyMajor</v>
-      </c>
-      <c r="L29" s="179"/>
-      <c r="M29" s="206" t="s">
-        <v>99</v>
-      </c>
-      <c r="N29" s="207"/>
-      <c r="O29" s="207"/>
-      <c r="P29" s="207"/>
-      <c r="Q29" s="208"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="160" t="s">
-        <v>275</v>
+        <v/>
+      </c>
+      <c r="M29" s="212" t="s">
+        <v>96</v>
+      </c>
+      <c r="N29" s="213"/>
+      <c r="O29" s="213"/>
+      <c r="P29" s="213"/>
+      <c r="Q29" s="214"/>
+      <c r="R29" s="88"/>
+      <c r="S29" s="18" t="s">
+        <v>97</v>
       </c>
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
@@ -7504,39 +7909,47 @@
       <c r="AB29" s="1"/>
       <c r="AC29" s="1"/>
     </row>
-    <row r="30" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="70">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="B30" s="181"/>
+    <row r="30" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="20">
+        <v>28</v>
+      </c>
+      <c r="B30" s="176">
+        <v>26</v>
+      </c>
       <c r="C30" s="78" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D30" s="78" t="s">
-        <v>419</v>
-      </c>
-      <c r="E30" s="78" t="s">
-        <v>339</v>
-      </c>
-      <c r="F30" s="79"/>
-      <c r="G30" s="79"/>
+        <v>394</v>
+      </c>
+      <c r="E30" s="185" t="s">
+        <v>457</v>
+      </c>
+      <c r="F30" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="G30" s="79" t="s">
+        <v>121</v>
+      </c>
       <c r="H30" s="79"/>
-      <c r="I30" s="79"/>
+      <c r="I30" s="79" t="s">
+        <v>291</v>
+      </c>
       <c r="J30" s="85"/>
-      <c r="K30" s="178" t="str">
+      <c r="K30" s="122" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L30" s="179"/>
-      <c r="M30" s="209"/>
-      <c r="N30" s="207"/>
-      <c r="O30" s="207"/>
-      <c r="P30" s="207"/>
-      <c r="Q30" s="208"/>
-      <c r="R30" s="88"/>
+        <v>AccuracyMajor</v>
+      </c>
+      <c r="M30" s="212" t="s">
+        <v>99</v>
+      </c>
+      <c r="N30" s="213"/>
+      <c r="O30" s="213"/>
+      <c r="P30" s="213"/>
+      <c r="Q30" s="214"/>
+      <c r="R30" s="1"/>
       <c r="S30" s="160" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
@@ -7549,47 +7962,39 @@
       <c r="AB30" s="1"/>
       <c r="AC30" s="1"/>
     </row>
-    <row r="31" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="70">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="B31" s="181"/>
+    <row r="31" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="20">
+        <v>29</v>
+      </c>
+      <c r="B31" s="176">
+        <v>27</v>
+      </c>
       <c r="C31" s="78" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="D31" s="78" t="s">
-        <v>421</v>
-      </c>
-      <c r="E31" s="78" t="s">
-        <v>420</v>
-      </c>
-      <c r="F31" s="79" t="s">
-        <v>83</v>
-      </c>
-      <c r="G31" s="79" t="s">
-        <v>120</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="E31" s="185" t="s">
+        <v>336</v>
+      </c>
+      <c r="F31" s="79"/>
+      <c r="G31" s="79"/>
       <c r="H31" s="79"/>
-      <c r="I31" s="79" t="s">
-        <v>294</v>
-      </c>
+      <c r="I31" s="79"/>
       <c r="J31" s="85"/>
-      <c r="K31" s="178" t="str">
+      <c r="K31" s="122" t="str">
         <f t="shared" si="0"/>
-        <v>AccuracyMinor</v>
-      </c>
-      <c r="L31" s="179"/>
-      <c r="M31" s="206" t="s">
-        <v>100</v>
-      </c>
-      <c r="N31" s="207"/>
-      <c r="O31" s="207"/>
-      <c r="P31" s="207"/>
-      <c r="Q31" s="208"/>
+        <v/>
+      </c>
+      <c r="M31" s="215"/>
+      <c r="N31" s="213"/>
+      <c r="O31" s="213"/>
+      <c r="P31" s="213"/>
+      <c r="Q31" s="214"/>
       <c r="R31" s="88"/>
       <c r="S31" s="160" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
@@ -7602,45 +8007,47 @@
       <c r="AB31" s="1"/>
       <c r="AC31" s="1"/>
     </row>
-    <row r="32" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="70">
-        <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="B32" s="181"/>
+    <row r="32" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="20">
+        <v>30</v>
+      </c>
+      <c r="B32" s="176">
+        <v>28</v>
+      </c>
       <c r="C32" s="78" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D32" s="78" t="s">
-        <v>422</v>
-      </c>
-      <c r="E32" s="78" t="s">
-        <v>423</v>
+        <v>465</v>
+      </c>
+      <c r="E32" s="185" t="s">
+        <v>464</v>
       </c>
       <c r="F32" s="79" t="s">
         <v>83</v>
       </c>
       <c r="G32" s="79" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H32" s="79"/>
       <c r="I32" s="79" t="s">
         <v>294</v>
       </c>
       <c r="J32" s="85"/>
-      <c r="K32" s="178" t="str">
+      <c r="K32" s="122" t="str">
         <f t="shared" si="0"/>
         <v>AccuracyMinor</v>
       </c>
-      <c r="L32" s="179"/>
-      <c r="M32" s="209"/>
-      <c r="N32" s="207"/>
-      <c r="O32" s="207"/>
-      <c r="P32" s="207"/>
-      <c r="Q32" s="208"/>
-      <c r="R32" s="1"/>
-      <c r="S32" s="161" t="s">
-        <v>109</v>
+      <c r="M32" s="212" t="s">
+        <v>100</v>
+      </c>
+      <c r="N32" s="213"/>
+      <c r="O32" s="213"/>
+      <c r="P32" s="213"/>
+      <c r="Q32" s="214"/>
+      <c r="R32" s="88"/>
+      <c r="S32" s="160" t="s">
+        <v>277</v>
       </c>
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
@@ -7654,39 +8061,45 @@
       <c r="AC32" s="1"/>
     </row>
     <row r="33" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="70">
-        <f>A32+1</f>
-        <v>30</v>
-      </c>
-      <c r="B33" s="181"/>
+      <c r="A33" s="20">
+        <v>31</v>
+      </c>
+      <c r="B33" s="176">
+        <v>29</v>
+      </c>
       <c r="C33" s="78" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D33" s="78" t="s">
-        <v>424</v>
-      </c>
-      <c r="E33" s="78" t="s">
-        <v>343</v>
-      </c>
-      <c r="F33" s="79"/>
-      <c r="G33" s="79"/>
+        <v>396</v>
+      </c>
+      <c r="E33" s="185" t="s">
+        <v>458</v>
+      </c>
+      <c r="F33" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="G33" s="79" t="s">
+        <v>121</v>
+      </c>
       <c r="H33" s="79"/>
-      <c r="I33" s="79"/>
+      <c r="I33" s="79" t="s">
+        <v>294</v>
+      </c>
       <c r="J33" s="85"/>
-      <c r="K33" s="178" t="str">
+      <c r="K33" s="122" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L33" s="179"/>
-      <c r="M33" s="206" t="s">
-        <v>104</v>
-      </c>
-      <c r="N33" s="207"/>
-      <c r="O33" s="207"/>
-      <c r="P33" s="207"/>
-      <c r="Q33" s="208"/>
-      <c r="R33" s="17"/>
-      <c r="S33" s="21"/>
+        <v>AccuracyMinor</v>
+      </c>
+      <c r="M33" s="215"/>
+      <c r="N33" s="213"/>
+      <c r="O33" s="213"/>
+      <c r="P33" s="213"/>
+      <c r="Q33" s="214"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="161" t="s">
+        <v>109</v>
+      </c>
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
@@ -7698,36 +8111,38 @@
       <c r="AB33" s="1"/>
       <c r="AC33" s="1"/>
     </row>
-    <row r="34" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="70">
-        <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="B34" s="181"/>
+    <row r="34" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="20">
+        <v>32</v>
+      </c>
+      <c r="B34" s="176">
+        <v>30</v>
+      </c>
       <c r="C34" s="78" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="D34" s="78" t="s">
-        <v>425</v>
-      </c>
-      <c r="E34" s="78" t="s">
-        <v>345</v>
+        <v>397</v>
+      </c>
+      <c r="E34" s="185" t="s">
+        <v>466</v>
       </c>
       <c r="F34" s="79"/>
       <c r="G34" s="79"/>
       <c r="H34" s="79"/>
       <c r="I34" s="79"/>
       <c r="J34" s="85"/>
-      <c r="K34" s="178" t="str">
+      <c r="K34" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L34" s="179"/>
-      <c r="M34" s="209"/>
-      <c r="N34" s="207"/>
-      <c r="O34" s="207"/>
-      <c r="P34" s="207"/>
-      <c r="Q34" s="208"/>
+      <c r="M34" s="212" t="s">
+        <v>104</v>
+      </c>
+      <c r="N34" s="213"/>
+      <c r="O34" s="213"/>
+      <c r="P34" s="213"/>
+      <c r="Q34" s="214"/>
       <c r="R34" s="17"/>
       <c r="S34" s="21"/>
       <c r="T34" s="1"/>
@@ -7741,39 +8156,43 @@
       <c r="AB34" s="1"/>
       <c r="AC34" s="1"/>
     </row>
-    <row r="35" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="70">
-        <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="B35" s="181"/>
+    <row r="35" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="20">
+        <v>33</v>
+      </c>
+      <c r="B35" s="176">
+        <v>31</v>
+      </c>
       <c r="C35" s="78" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="D35" s="78" t="s">
-        <v>426</v>
-      </c>
-      <c r="E35" s="78" t="s">
-        <v>427</v>
-      </c>
-      <c r="F35" s="79"/>
-      <c r="G35" s="79"/>
+        <v>398</v>
+      </c>
+      <c r="E35" s="178" t="s">
+        <v>467</v>
+      </c>
+      <c r="F35" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="G35" s="79" t="s">
+        <v>120</v>
+      </c>
       <c r="H35" s="79"/>
-      <c r="I35" s="79"/>
+      <c r="I35" s="79" t="s">
+        <v>291</v>
+      </c>
       <c r="J35" s="85"/>
-      <c r="K35" s="178" t="str">
+      <c r="K35" s="122" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L35" s="179"/>
-      <c r="M35" s="206" t="s">
-        <v>108</v>
-      </c>
-      <c r="N35" s="207"/>
-      <c r="O35" s="207"/>
-      <c r="P35" s="207"/>
-      <c r="Q35" s="208"/>
-      <c r="R35" s="88"/>
+        <v>AccuracyMajor</v>
+      </c>
+      <c r="M35" s="215"/>
+      <c r="N35" s="213"/>
+      <c r="O35" s="213"/>
+      <c r="P35" s="213"/>
+      <c r="Q35" s="214"/>
+      <c r="R35" s="17"/>
       <c r="S35" s="21"/>
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
@@ -7787,43 +8206,45 @@
       <c r="AC35" s="1"/>
     </row>
     <row r="36" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="70">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="B36" s="181"/>
+      <c r="A36" s="20">
+        <v>34</v>
+      </c>
+      <c r="B36" s="176">
+        <v>32</v>
+      </c>
       <c r="C36" s="78" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="D36" s="78" t="s">
-        <v>428</v>
-      </c>
-      <c r="E36" s="78" t="s">
-        <v>348</v>
+        <v>399</v>
+      </c>
+      <c r="E36" s="185" t="s">
+        <v>400</v>
       </c>
       <c r="F36" s="79" t="s">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="G36" s="79" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="H36" s="79"/>
       <c r="I36" s="79" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="J36" s="85"/>
-      <c r="K36" s="178" t="str">
+      <c r="K36" s="122" t="str">
         <f t="shared" si="0"/>
-        <v>FluencyMinor</v>
-      </c>
-      <c r="L36" s="179"/>
-      <c r="M36" s="210"/>
-      <c r="N36" s="211"/>
-      <c r="O36" s="211"/>
-      <c r="P36" s="211"/>
-      <c r="Q36" s="212"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
+        <v>AccuracyMajor</v>
+      </c>
+      <c r="M36" s="212" t="s">
+        <v>108</v>
+      </c>
+      <c r="N36" s="213"/>
+      <c r="O36" s="213"/>
+      <c r="P36" s="213"/>
+      <c r="Q36" s="214"/>
+      <c r="R36" s="88"/>
+      <c r="S36" s="21"/>
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
@@ -7836,35 +8257,41 @@
       <c r="AC36" s="1"/>
     </row>
     <row r="37" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="70">
-        <f t="shared" si="1"/>
-        <v>34</v>
-      </c>
-      <c r="B37" s="181"/>
+      <c r="A37" s="20">
+        <v>35</v>
+      </c>
+      <c r="B37" s="176">
+        <v>33</v>
+      </c>
       <c r="C37" s="78" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="D37" s="78" t="s">
-        <v>429</v>
-      </c>
-      <c r="E37" s="78" t="s">
-        <v>350</v>
-      </c>
-      <c r="F37" s="79"/>
-      <c r="G37" s="79"/>
+        <v>401</v>
+      </c>
+      <c r="E37" s="185" t="s">
+        <v>469</v>
+      </c>
+      <c r="F37" s="79" t="s">
+        <v>139</v>
+      </c>
+      <c r="G37" s="79" t="s">
+        <v>142</v>
+      </c>
       <c r="H37" s="79"/>
-      <c r="I37" s="79"/>
+      <c r="I37" s="79" t="s">
+        <v>294</v>
+      </c>
       <c r="J37" s="85"/>
-      <c r="K37" s="178" t="str">
+      <c r="K37" s="122" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L37" s="179"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
+        <v>FluencyMinor</v>
+      </c>
+      <c r="M37" s="216"/>
+      <c r="N37" s="217"/>
+      <c r="O37" s="217"/>
+      <c r="P37" s="217"/>
+      <c r="Q37" s="218"/>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
@@ -7879,33 +8306,33 @@
       <c r="AC37" s="1"/>
     </row>
     <row r="38" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="70">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="B38" s="181"/>
-      <c r="C38" s="78" t="s">
-        <v>351</v>
-      </c>
-      <c r="D38" s="78"/>
-      <c r="E38" s="78" t="s">
-        <v>352</v>
-      </c>
-      <c r="F38" s="79"/>
-      <c r="G38" s="79"/>
+      <c r="A38" s="20">
+        <v>36</v>
+      </c>
+      <c r="B38" s="176">
+        <v>33</v>
+      </c>
+      <c r="C38" s="78"/>
+      <c r="D38" s="78" t="s">
+        <v>468</v>
+      </c>
+      <c r="E38" s="185"/>
+      <c r="F38" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="G38" s="79" t="s">
+        <v>120</v>
+      </c>
       <c r="H38" s="79"/>
-      <c r="I38" s="79"/>
+      <c r="I38" s="79" t="s">
+        <v>291</v>
+      </c>
       <c r="J38" s="85"/>
-      <c r="K38" s="178" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L38" s="179"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
+      <c r="M38" s="180"/>
+      <c r="N38" s="180"/>
+      <c r="O38" s="180"/>
+      <c r="P38" s="180"/>
+      <c r="Q38" s="180"/>
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
@@ -7920,28 +8347,30 @@
       <c r="AC38" s="1"/>
     </row>
     <row r="39" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="70">
-        <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="B39" s="181"/>
+      <c r="A39" s="20">
+        <v>37</v>
+      </c>
+      <c r="B39" s="176">
+        <v>34</v>
+      </c>
       <c r="C39" s="78" t="s">
-        <v>353</v>
-      </c>
-      <c r="D39" s="78"/>
-      <c r="E39" s="78" t="s">
-        <v>354</v>
+        <v>343</v>
+      </c>
+      <c r="D39" s="78" t="s">
+        <v>402</v>
+      </c>
+      <c r="E39" s="185" t="s">
+        <v>344</v>
       </c>
       <c r="F39" s="79"/>
       <c r="G39" s="79"/>
       <c r="H39" s="79"/>
       <c r="I39" s="79"/>
       <c r="J39" s="85"/>
-      <c r="K39" s="178" t="str">
+      <c r="K39" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L39" s="179"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
@@ -7961,28 +8390,36 @@
       <c r="AC39" s="1"/>
     </row>
     <row r="40" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="70">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="B40" s="181"/>
+      <c r="A40" s="20">
+        <v>38</v>
+      </c>
+      <c r="B40" s="176">
+        <v>35</v>
+      </c>
       <c r="C40" s="78" t="s">
-        <v>355</v>
-      </c>
-      <c r="D40" s="78"/>
-      <c r="E40" s="78" t="s">
-        <v>356</v>
-      </c>
-      <c r="F40" s="79"/>
-      <c r="G40" s="79"/>
+        <v>345</v>
+      </c>
+      <c r="D40" s="78" t="s">
+        <v>421</v>
+      </c>
+      <c r="E40" s="185" t="s">
+        <v>346</v>
+      </c>
+      <c r="F40" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="G40" s="79" t="s">
+        <v>120</v>
+      </c>
       <c r="H40" s="79"/>
-      <c r="I40" s="79"/>
+      <c r="I40" s="79" t="s">
+        <v>294</v>
+      </c>
       <c r="J40" s="85"/>
-      <c r="K40" s="178" t="str">
+      <c r="K40" s="122" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L40" s="179"/>
+        <v>AccuracyMinor</v>
+      </c>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
@@ -8001,29 +8438,37 @@
       <c r="AB40" s="1"/>
       <c r="AC40" s="1"/>
     </row>
-    <row r="41" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="70">
-        <f t="shared" si="1"/>
-        <v>38</v>
-      </c>
-      <c r="B41" s="181"/>
+    <row r="41" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="20">
+        <v>39</v>
+      </c>
+      <c r="B41" s="176">
+        <v>36</v>
+      </c>
       <c r="C41" s="78" t="s">
-        <v>357</v>
-      </c>
-      <c r="D41" s="78"/>
-      <c r="E41" s="78" t="s">
-        <v>358</v>
-      </c>
-      <c r="F41" s="79"/>
-      <c r="G41" s="79"/>
+        <v>347</v>
+      </c>
+      <c r="D41" s="78" t="s">
+        <v>470</v>
+      </c>
+      <c r="E41" s="185" t="s">
+        <v>476</v>
+      </c>
+      <c r="F41" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="G41" s="79" t="s">
+        <v>121</v>
+      </c>
       <c r="H41" s="79"/>
-      <c r="I41" s="79"/>
+      <c r="I41" s="79" t="s">
+        <v>290</v>
+      </c>
       <c r="J41" s="85"/>
-      <c r="K41" s="178" t="str">
+      <c r="K41" s="122" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L41" s="179"/>
+        <v>AccuracyCritical</v>
+      </c>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
@@ -8042,29 +8487,37 @@
       <c r="AB41" s="1"/>
       <c r="AC41" s="1"/>
     </row>
-    <row r="42" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="70">
-        <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="B42" s="181"/>
+    <row r="42" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="20">
+        <v>40</v>
+      </c>
+      <c r="B42" s="176">
+        <v>37</v>
+      </c>
       <c r="C42" s="78" t="s">
-        <v>359</v>
-      </c>
-      <c r="D42" s="78"/>
-      <c r="E42" s="78" t="s">
-        <v>360</v>
-      </c>
-      <c r="F42" s="79"/>
-      <c r="G42" s="79"/>
+        <v>348</v>
+      </c>
+      <c r="D42" s="78" t="s">
+        <v>471</v>
+      </c>
+      <c r="E42" s="185" t="s">
+        <v>477</v>
+      </c>
+      <c r="F42" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="G42" s="79" t="s">
+        <v>121</v>
+      </c>
       <c r="H42" s="79"/>
-      <c r="I42" s="79"/>
+      <c r="I42" s="79" t="s">
+        <v>294</v>
+      </c>
       <c r="J42" s="85"/>
-      <c r="K42" s="178" t="str">
+      <c r="K42" s="122" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L42" s="179"/>
+        <v>AccuracyMinor</v>
+      </c>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
@@ -8084,28 +8537,28 @@
       <c r="AC42" s="1"/>
     </row>
     <row r="43" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="70">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="B43" s="181"/>
-      <c r="C43" s="78" t="s">
-        <v>361</v>
-      </c>
-      <c r="D43" s="78"/>
-      <c r="E43" s="78" t="s">
-        <v>362</v>
-      </c>
-      <c r="F43" s="79"/>
-      <c r="G43" s="79"/>
+      <c r="A43" s="20">
+        <v>41</v>
+      </c>
+      <c r="B43" s="176">
+        <v>37</v>
+      </c>
+      <c r="C43" s="78"/>
+      <c r="D43" s="78" t="s">
+        <v>422</v>
+      </c>
+      <c r="E43" s="185"/>
+      <c r="F43" s="79" t="s">
+        <v>139</v>
+      </c>
+      <c r="G43" s="79" t="s">
+        <v>142</v>
+      </c>
       <c r="H43" s="79"/>
-      <c r="I43" s="79"/>
+      <c r="I43" s="79" t="s">
+        <v>294</v>
+      </c>
       <c r="J43" s="85"/>
-      <c r="K43" s="178" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L43" s="179"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
@@ -8125,28 +8578,36 @@
       <c r="AC43" s="1"/>
     </row>
     <row r="44" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="70">
-        <f t="shared" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="B44" s="181"/>
+      <c r="A44" s="20">
+        <v>42</v>
+      </c>
+      <c r="B44" s="176">
+        <v>38</v>
+      </c>
       <c r="C44" s="78" t="s">
-        <v>363</v>
-      </c>
-      <c r="D44" s="78"/>
-      <c r="E44" s="78" t="s">
-        <v>364</v>
-      </c>
-      <c r="F44" s="79"/>
-      <c r="G44" s="79"/>
+        <v>349</v>
+      </c>
+      <c r="D44" s="78" t="s">
+        <v>423</v>
+      </c>
+      <c r="E44" s="185" t="s">
+        <v>475</v>
+      </c>
+      <c r="F44" s="79" t="s">
+        <v>139</v>
+      </c>
+      <c r="G44" s="79" t="s">
+        <v>141</v>
+      </c>
       <c r="H44" s="79"/>
-      <c r="I44" s="79"/>
+      <c r="I44" s="79" t="s">
+        <v>291</v>
+      </c>
       <c r="J44" s="85"/>
-      <c r="K44" s="178" t="str">
+      <c r="K44" s="122" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L44" s="179"/>
+        <v>FluencyMajor</v>
+      </c>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
@@ -8165,29 +8626,31 @@
       <c r="AB44" s="1"/>
       <c r="AC44" s="1"/>
     </row>
-    <row r="45" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="70">
-        <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="B45" s="181"/>
+    <row r="45" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="20">
+        <v>43</v>
+      </c>
+      <c r="B45" s="176">
+        <v>39</v>
+      </c>
       <c r="C45" s="78" t="s">
-        <v>365</v>
-      </c>
-      <c r="D45" s="78"/>
-      <c r="E45" s="78" t="s">
-        <v>366</v>
+        <v>350</v>
+      </c>
+      <c r="D45" s="78" t="s">
+        <v>424</v>
+      </c>
+      <c r="E45" s="185" t="s">
+        <v>351</v>
       </c>
       <c r="F45" s="79"/>
       <c r="G45" s="79"/>
       <c r="H45" s="79"/>
       <c r="I45" s="79"/>
       <c r="J45" s="85"/>
-      <c r="K45" s="178" t="str">
+      <c r="K45" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L45" s="179"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
@@ -8206,29 +8669,31 @@
       <c r="AB45" s="1"/>
       <c r="AC45" s="1"/>
     </row>
-    <row r="46" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="70">
-        <f t="shared" si="1"/>
-        <v>43</v>
-      </c>
-      <c r="B46" s="181"/>
+    <row r="46" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="20">
+        <v>44</v>
+      </c>
+      <c r="B46" s="176">
+        <v>40</v>
+      </c>
       <c r="C46" s="78" t="s">
-        <v>367</v>
-      </c>
-      <c r="D46" s="78"/>
-      <c r="E46" s="78" t="s">
-        <v>368</v>
+        <v>352</v>
+      </c>
+      <c r="D46" s="78" t="s">
+        <v>425</v>
+      </c>
+      <c r="E46" s="185" t="s">
+        <v>353</v>
       </c>
       <c r="F46" s="79"/>
       <c r="G46" s="79"/>
       <c r="H46" s="79"/>
       <c r="I46" s="79"/>
       <c r="J46" s="85"/>
-      <c r="K46" s="178" t="str">
+      <c r="K46" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L46" s="179"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
@@ -8247,29 +8712,31 @@
       <c r="AB46" s="1"/>
       <c r="AC46" s="1"/>
     </row>
-    <row r="47" spans="1:29" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A47" s="70">
-        <f t="shared" si="1"/>
-        <v>44</v>
-      </c>
-      <c r="B47" s="181"/>
+    <row r="47" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="20">
+        <v>45</v>
+      </c>
+      <c r="B47" s="176">
+        <v>41</v>
+      </c>
       <c r="C47" s="78" t="s">
-        <v>369</v>
-      </c>
-      <c r="D47" s="78"/>
-      <c r="E47" s="78" t="s">
-        <v>370</v>
+        <v>354</v>
+      </c>
+      <c r="D47" s="78" t="s">
+        <v>426</v>
+      </c>
+      <c r="E47" s="185" t="s">
+        <v>355</v>
       </c>
       <c r="F47" s="79"/>
       <c r="G47" s="79"/>
       <c r="H47" s="79"/>
       <c r="I47" s="79"/>
       <c r="J47" s="85"/>
-      <c r="K47" s="178" t="str">
+      <c r="K47" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L47" s="179"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
@@ -8288,29 +8755,31 @@
       <c r="AB47" s="1"/>
       <c r="AC47" s="1"/>
     </row>
-    <row r="48" spans="1:29" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A48" s="70">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="B48" s="181"/>
+    <row r="48" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="20">
+        <v>46</v>
+      </c>
+      <c r="B48" s="176">
+        <v>42</v>
+      </c>
       <c r="C48" s="78" t="s">
-        <v>371</v>
-      </c>
-      <c r="D48" s="78"/>
-      <c r="E48" s="78" t="s">
-        <v>372</v>
+        <v>356</v>
+      </c>
+      <c r="D48" s="78" t="s">
+        <v>427</v>
+      </c>
+      <c r="E48" s="185" t="s">
+        <v>357</v>
       </c>
       <c r="F48" s="79"/>
       <c r="G48" s="79"/>
       <c r="H48" s="79"/>
       <c r="I48" s="79"/>
       <c r="J48" s="85"/>
-      <c r="K48" s="178" t="str">
+      <c r="K48" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L48" s="179"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
@@ -8329,40 +8798,38 @@
       <c r="AB48" s="1"/>
       <c r="AC48" s="1"/>
     </row>
-    <row r="49" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="70">
-        <f t="shared" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="B49" s="181"/>
+    <row r="49" spans="1:29" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A49" s="20">
+        <v>47</v>
+      </c>
+      <c r="B49" s="176">
+        <v>43</v>
+      </c>
       <c r="C49" s="78" t="s">
-        <v>373</v>
-      </c>
-      <c r="D49" s="78"/>
-      <c r="E49" s="78" t="s">
-        <v>374</v>
+        <v>358</v>
+      </c>
+      <c r="D49" s="78" t="s">
+        <v>428</v>
+      </c>
+      <c r="E49" s="185" t="s">
+        <v>359</v>
       </c>
       <c r="F49" s="79"/>
       <c r="G49" s="79"/>
       <c r="H49" s="79"/>
       <c r="I49" s="79"/>
       <c r="J49" s="85"/>
-      <c r="K49" s="178" t="str">
+      <c r="K49" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L49" s="179"/>
-      <c r="M49" s="206" t="s">
-        <v>95</v>
-      </c>
-      <c r="N49" s="207"/>
-      <c r="O49" s="207"/>
-      <c r="P49" s="207"/>
-      <c r="Q49" s="208"/>
-      <c r="R49" s="17"/>
-      <c r="S49" s="18" t="s">
-        <v>50</v>
-      </c>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
       <c r="T49" s="1"/>
       <c r="U49" s="1"/>
       <c r="V49" s="1"/>
@@ -8374,40 +8841,38 @@
       <c r="AB49" s="1"/>
       <c r="AC49" s="1"/>
     </row>
-    <row r="50" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="70">
-        <f t="shared" si="1"/>
-        <v>47</v>
-      </c>
-      <c r="B50" s="181"/>
+    <row r="50" spans="1:29" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A50" s="20">
+        <v>48</v>
+      </c>
+      <c r="B50" s="176">
+        <v>44</v>
+      </c>
       <c r="C50" s="78" t="s">
-        <v>375</v>
-      </c>
-      <c r="D50" s="78"/>
-      <c r="E50" s="78" t="s">
-        <v>376</v>
+        <v>360</v>
+      </c>
+      <c r="D50" s="78" t="s">
+        <v>429</v>
+      </c>
+      <c r="E50" s="185" t="s">
+        <v>361</v>
       </c>
       <c r="F50" s="79"/>
       <c r="G50" s="79"/>
       <c r="H50" s="79"/>
       <c r="I50" s="79"/>
       <c r="J50" s="85"/>
-      <c r="K50" s="178" t="str">
+      <c r="K50" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L50" s="179"/>
-      <c r="M50" s="206" t="s">
-        <v>96</v>
-      </c>
-      <c r="N50" s="207"/>
-      <c r="O50" s="207"/>
-      <c r="P50" s="207"/>
-      <c r="Q50" s="208"/>
-      <c r="R50" s="88"/>
-      <c r="S50" s="18" t="s">
-        <v>97</v>
-      </c>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
       <c r="T50" s="1"/>
       <c r="U50" s="1"/>
       <c r="V50" s="1"/>
@@ -8419,40 +8884,44 @@
       <c r="AB50" s="1"/>
       <c r="AC50" s="1"/>
     </row>
-    <row r="51" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="70">
-        <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="B51" s="181"/>
+    <row r="51" spans="1:29" ht="63" x14ac:dyDescent="0.25">
+      <c r="A51" s="20">
+        <v>49</v>
+      </c>
+      <c r="B51" s="176">
+        <v>45</v>
+      </c>
       <c r="C51" s="78" t="s">
-        <v>377</v>
-      </c>
-      <c r="D51" s="78"/>
-      <c r="E51" s="78" t="s">
-        <v>378</v>
-      </c>
-      <c r="F51" s="79"/>
-      <c r="G51" s="79"/>
+        <v>362</v>
+      </c>
+      <c r="D51" s="78" t="s">
+        <v>430</v>
+      </c>
+      <c r="E51" s="185" t="s">
+        <v>363</v>
+      </c>
+      <c r="F51" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="G51" s="79" t="s">
+        <v>119</v>
+      </c>
       <c r="H51" s="79"/>
-      <c r="I51" s="79"/>
+      <c r="I51" s="79" t="s">
+        <v>294</v>
+      </c>
       <c r="J51" s="85"/>
-      <c r="K51" s="178" t="str">
+      <c r="K51" s="122" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L51" s="179"/>
-      <c r="M51" s="206" t="s">
-        <v>99</v>
-      </c>
-      <c r="N51" s="207"/>
-      <c r="O51" s="207"/>
-      <c r="P51" s="207"/>
-      <c r="Q51" s="208"/>
+        <v>AccuracyMinor</v>
+      </c>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
-      <c r="S51" s="160" t="s">
-        <v>275</v>
-      </c>
+      <c r="S51" s="1"/>
       <c r="T51" s="1"/>
       <c r="U51" s="1"/>
       <c r="V51" s="1"/>
@@ -8465,36 +8934,46 @@
       <c r="AC51" s="1"/>
     </row>
     <row r="52" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="70">
-        <f t="shared" si="1"/>
-        <v>49</v>
-      </c>
-      <c r="B52" s="181"/>
+      <c r="A52" s="20">
+        <v>50</v>
+      </c>
+      <c r="B52" s="176">
+        <v>46</v>
+      </c>
       <c r="C52" s="78" t="s">
-        <v>379</v>
-      </c>
-      <c r="D52" s="78"/>
-      <c r="E52" s="78" t="s">
-        <v>380</v>
-      </c>
-      <c r="F52" s="79"/>
-      <c r="G52" s="79"/>
+        <v>364</v>
+      </c>
+      <c r="D52" s="78" t="s">
+        <v>431</v>
+      </c>
+      <c r="E52" s="185" t="s">
+        <v>365</v>
+      </c>
+      <c r="F52" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="G52" s="79" t="s">
+        <v>121</v>
+      </c>
       <c r="H52" s="79"/>
-      <c r="I52" s="79"/>
+      <c r="I52" s="79" t="s">
+        <v>291</v>
+      </c>
       <c r="J52" s="85"/>
-      <c r="K52" s="178" t="str">
+      <c r="K52" s="122" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L52" s="179"/>
-      <c r="M52" s="209"/>
-      <c r="N52" s="207"/>
-      <c r="O52" s="207"/>
-      <c r="P52" s="207"/>
-      <c r="Q52" s="208"/>
-      <c r="R52" s="88"/>
-      <c r="S52" s="160" t="s">
-        <v>276</v>
+        <v>AccuracyMajor</v>
+      </c>
+      <c r="M52" s="212" t="s">
+        <v>95</v>
+      </c>
+      <c r="N52" s="213"/>
+      <c r="O52" s="213"/>
+      <c r="P52" s="213"/>
+      <c r="Q52" s="214"/>
+      <c r="R52" s="17"/>
+      <c r="S52" s="18" t="s">
+        <v>50</v>
       </c>
       <c r="T52" s="1"/>
       <c r="U52" s="1"/>
@@ -8507,33 +8986,45 @@
       <c r="AB52" s="1"/>
       <c r="AC52" s="1"/>
     </row>
-    <row r="53" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="70">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="B53" s="181"/>
-      <c r="D53" s="78"/>
-      <c r="F53" s="79"/>
+    <row r="53" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="20">
+        <v>51</v>
+      </c>
+      <c r="B53" s="176">
+        <v>47</v>
+      </c>
+      <c r="C53" s="78" t="s">
+        <v>366</v>
+      </c>
+      <c r="D53" s="177" t="s">
+        <v>433</v>
+      </c>
+      <c r="E53" s="185" t="s">
+        <v>432</v>
+      </c>
+      <c r="F53" s="79" t="s">
+        <v>139</v>
+      </c>
       <c r="G53" s="79"/>
       <c r="H53" s="79"/>
-      <c r="I53" s="79"/>
+      <c r="I53" s="79" t="s">
+        <v>290</v>
+      </c>
       <c r="J53" s="85"/>
-      <c r="K53" s="178" t="str">
+      <c r="K53" s="122" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L53" s="179"/>
-      <c r="M53" s="206" t="s">
-        <v>100</v>
-      </c>
-      <c r="N53" s="207"/>
-      <c r="O53" s="207"/>
-      <c r="P53" s="207"/>
-      <c r="Q53" s="208"/>
+        <v>FluencyCritical</v>
+      </c>
+      <c r="M53" s="212" t="s">
+        <v>96</v>
+      </c>
+      <c r="N53" s="213"/>
+      <c r="O53" s="213"/>
+      <c r="P53" s="213"/>
+      <c r="Q53" s="214"/>
       <c r="R53" s="88"/>
-      <c r="S53" s="160" t="s">
-        <v>277</v>
+      <c r="S53" s="18" t="s">
+        <v>97</v>
       </c>
       <c r="T53" s="1"/>
       <c r="U53" s="1"/>
@@ -8546,33 +9037,47 @@
       <c r="AB53" s="1"/>
       <c r="AC53" s="1"/>
     </row>
-    <row r="54" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="70">
-        <f t="shared" si="1"/>
-        <v>51</v>
-      </c>
-      <c r="B54" s="71"/>
-      <c r="C54" s="78"/>
-      <c r="D54" s="78"/>
-      <c r="E54" s="79"/>
-      <c r="F54" s="79"/>
-      <c r="G54" s="79"/>
+    <row r="54" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A54" s="20">
+        <v>52</v>
+      </c>
+      <c r="B54" s="176">
+        <v>48</v>
+      </c>
+      <c r="C54" s="78" t="s">
+        <v>434</v>
+      </c>
+      <c r="D54" s="78" t="s">
+        <v>435</v>
+      </c>
+      <c r="E54" s="185" t="s">
+        <v>367</v>
+      </c>
+      <c r="F54" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="G54" s="79" t="s">
+        <v>121</v>
+      </c>
       <c r="H54" s="79"/>
-      <c r="I54" s="79"/>
+      <c r="I54" s="79" t="s">
+        <v>291</v>
+      </c>
       <c r="J54" s="85"/>
-      <c r="K54" s="178" t="str">
+      <c r="K54" s="122" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L54" s="179"/>
-      <c r="M54" s="209"/>
-      <c r="N54" s="207"/>
-      <c r="O54" s="207"/>
-      <c r="P54" s="207"/>
-      <c r="Q54" s="208"/>
+        <v>AccuracyMajor</v>
+      </c>
+      <c r="M54" s="212" t="s">
+        <v>99</v>
+      </c>
+      <c r="N54" s="213"/>
+      <c r="O54" s="213"/>
+      <c r="P54" s="213"/>
+      <c r="Q54" s="214"/>
       <c r="R54" s="1"/>
-      <c r="S54" s="161" t="s">
-        <v>109</v>
+      <c r="S54" s="160" t="s">
+        <v>275</v>
       </c>
       <c r="T54" s="1"/>
       <c r="U54" s="1"/>
@@ -8585,34 +9090,40 @@
       <c r="AB54" s="1"/>
       <c r="AC54" s="1"/>
     </row>
-    <row r="55" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="70">
-        <f t="shared" si="1"/>
-        <v>52</v>
-      </c>
-      <c r="B55" s="71"/>
-      <c r="C55" s="78"/>
-      <c r="D55" s="78"/>
-      <c r="E55" s="79"/>
+    <row r="55" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="20">
+        <v>53</v>
+      </c>
+      <c r="B55" s="176">
+        <v>49</v>
+      </c>
+      <c r="C55" s="78" t="s">
+        <v>368</v>
+      </c>
+      <c r="D55" s="78" t="s">
+        <v>472</v>
+      </c>
+      <c r="E55" s="185" t="s">
+        <v>437</v>
+      </c>
       <c r="F55" s="79"/>
       <c r="G55" s="79"/>
       <c r="H55" s="79"/>
       <c r="I55" s="79"/>
       <c r="J55" s="85"/>
-      <c r="K55" s="178" t="str">
+      <c r="K55" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L55" s="179"/>
-      <c r="M55" s="206" t="s">
-        <v>104</v>
-      </c>
-      <c r="N55" s="207"/>
-      <c r="O55" s="207"/>
-      <c r="P55" s="207"/>
-      <c r="Q55" s="208"/>
-      <c r="R55" s="17"/>
-      <c r="S55" s="21"/>
+      <c r="M55" s="215"/>
+      <c r="N55" s="213"/>
+      <c r="O55" s="213"/>
+      <c r="P55" s="213"/>
+      <c r="Q55" s="214"/>
+      <c r="R55" s="88"/>
+      <c r="S55" s="160" t="s">
+        <v>276</v>
+      </c>
       <c r="T55" s="1"/>
       <c r="U55" s="1"/>
       <c r="V55" s="1"/>
@@ -8624,32 +9135,48 @@
       <c r="AB55" s="1"/>
       <c r="AC55" s="1"/>
     </row>
-    <row r="56" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="70">
-        <f t="shared" si="1"/>
-        <v>53</v>
-      </c>
-      <c r="B56" s="71"/>
-      <c r="C56" s="78"/>
-      <c r="D56" s="78"/>
-      <c r="E56" s="79"/>
-      <c r="F56" s="79"/>
-      <c r="G56" s="79"/>
+    <row r="56" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="20">
+        <v>54</v>
+      </c>
+      <c r="B56" s="176">
+        <v>50</v>
+      </c>
+      <c r="C56" s="179" t="s">
+        <v>436</v>
+      </c>
+      <c r="D56" s="78" t="s">
+        <v>438</v>
+      </c>
+      <c r="E56" s="186" t="s">
+        <v>474</v>
+      </c>
+      <c r="F56" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="G56" s="79" t="s">
+        <v>121</v>
+      </c>
       <c r="H56" s="79"/>
-      <c r="I56" s="79"/>
+      <c r="I56" s="79" t="s">
+        <v>291</v>
+      </c>
       <c r="J56" s="85"/>
-      <c r="K56" s="178" t="str">
+      <c r="K56" s="122" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L56" s="179"/>
-      <c r="M56" s="209"/>
-      <c r="N56" s="207"/>
-      <c r="O56" s="207"/>
-      <c r="P56" s="207"/>
-      <c r="Q56" s="208"/>
-      <c r="R56" s="17"/>
-      <c r="S56" s="21"/>
+        <v>AccuracyMajor</v>
+      </c>
+      <c r="M56" s="212" t="s">
+        <v>100</v>
+      </c>
+      <c r="N56" s="213"/>
+      <c r="O56" s="213"/>
+      <c r="P56" s="213"/>
+      <c r="Q56" s="214"/>
+      <c r="R56" s="88"/>
+      <c r="S56" s="160" t="s">
+        <v>277</v>
+      </c>
       <c r="T56" s="1"/>
       <c r="U56" s="1"/>
       <c r="V56" s="1"/>
@@ -8661,34 +9188,36 @@
       <c r="AB56" s="1"/>
       <c r="AC56" s="1"/>
     </row>
-    <row r="57" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="70">
-        <f t="shared" si="1"/>
-        <v>54</v>
-      </c>
-      <c r="B57" s="71"/>
-      <c r="C57" s="78"/>
-      <c r="D57" s="78"/>
-      <c r="E57" s="79"/>
-      <c r="F57" s="79"/>
-      <c r="G57" s="79"/>
+    <row r="57" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="20">
+        <v>55</v>
+      </c>
+      <c r="B57" s="176">
+        <v>50</v>
+      </c>
+      <c r="C57" s="179"/>
+      <c r="D57" s="78" t="s">
+        <v>473</v>
+      </c>
+      <c r="E57" s="186"/>
+      <c r="F57" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="G57" s="79" t="s">
+        <v>120</v>
+      </c>
       <c r="H57" s="79"/>
-      <c r="I57" s="79"/>
+      <c r="I57" s="79" t="s">
+        <v>294</v>
+      </c>
       <c r="J57" s="85"/>
-      <c r="K57" s="178" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L57" s="179"/>
-      <c r="M57" s="206" t="s">
-        <v>108</v>
-      </c>
-      <c r="N57" s="207"/>
-      <c r="O57" s="207"/>
-      <c r="P57" s="207"/>
-      <c r="Q57" s="208"/>
+      <c r="M57" s="212"/>
+      <c r="N57" s="213"/>
+      <c r="O57" s="213"/>
+      <c r="P57" s="213"/>
+      <c r="Q57" s="214"/>
       <c r="R57" s="88"/>
-      <c r="S57" s="21"/>
+      <c r="S57" s="160"/>
       <c r="T57" s="1"/>
       <c r="U57" s="1"/>
       <c r="V57" s="1"/>
@@ -8700,32 +9229,46 @@
       <c r="AB57" s="1"/>
       <c r="AC57" s="1"/>
     </row>
-    <row r="58" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="70">
-        <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="B58" s="71"/>
-      <c r="C58" s="78"/>
-      <c r="D58" s="78"/>
-      <c r="E58" s="79"/>
-      <c r="F58" s="79"/>
-      <c r="G58" s="79"/>
+    <row r="58" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="20">
+        <v>56</v>
+      </c>
+      <c r="B58" s="176">
+        <v>51</v>
+      </c>
+      <c r="C58" s="79" t="s">
+        <v>403</v>
+      </c>
+      <c r="D58" s="79" t="s">
+        <v>439</v>
+      </c>
+      <c r="E58" s="187" t="s">
+        <v>459</v>
+      </c>
+      <c r="F58" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="G58" s="79" t="s">
+        <v>120</v>
+      </c>
       <c r="H58" s="79"/>
-      <c r="I58" s="79"/>
+      <c r="I58" s="79" t="s">
+        <v>291</v>
+      </c>
       <c r="J58" s="85"/>
-      <c r="K58" s="178" t="str">
+      <c r="K58" s="122" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L58" s="179"/>
-      <c r="M58" s="210"/>
-      <c r="N58" s="211"/>
-      <c r="O58" s="211"/>
-      <c r="P58" s="211"/>
-      <c r="Q58" s="212"/>
+        <v>AccuracyMajor</v>
+      </c>
+      <c r="M58" s="215"/>
+      <c r="N58" s="213"/>
+      <c r="O58" s="213"/>
+      <c r="P58" s="213"/>
+      <c r="Q58" s="214"/>
       <c r="R58" s="1"/>
-      <c r="S58" s="1"/>
+      <c r="S58" s="161" t="s">
+        <v>109</v>
+      </c>
       <c r="T58" s="1"/>
       <c r="U58" s="1"/>
       <c r="V58" s="1"/>
@@ -8737,32 +9280,46 @@
       <c r="AB58" s="1"/>
       <c r="AC58" s="1"/>
     </row>
-    <row r="59" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="70">
-        <f t="shared" si="1"/>
-        <v>56</v>
-      </c>
-      <c r="B59" s="71"/>
-      <c r="C59" s="78"/>
-      <c r="D59" s="78"/>
-      <c r="E59" s="79"/>
-      <c r="F59" s="79"/>
-      <c r="G59" s="79"/>
+    <row r="59" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="20">
+        <v>57</v>
+      </c>
+      <c r="B59" s="176">
+        <v>52</v>
+      </c>
+      <c r="C59" s="79" t="s">
+        <v>404</v>
+      </c>
+      <c r="D59" s="79" t="s">
+        <v>440</v>
+      </c>
+      <c r="E59" s="187" t="s">
+        <v>405</v>
+      </c>
+      <c r="F59" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="G59" s="79" t="s">
+        <v>121</v>
+      </c>
       <c r="H59" s="79"/>
-      <c r="I59" s="79"/>
+      <c r="I59" s="79" t="s">
+        <v>294</v>
+      </c>
       <c r="J59" s="85"/>
-      <c r="K59" s="178" t="str">
+      <c r="K59" s="122" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L59" s="179"/>
-      <c r="M59" s="1"/>
-      <c r="N59" s="1"/>
-      <c r="O59" s="1"/>
-      <c r="P59" s="1"/>
-      <c r="Q59" s="1"/>
-      <c r="R59" s="1"/>
-      <c r="S59" s="1"/>
+        <v>AccuracyMinor</v>
+      </c>
+      <c r="M59" s="212" t="s">
+        <v>104</v>
+      </c>
+      <c r="N59" s="213"/>
+      <c r="O59" s="213"/>
+      <c r="P59" s="213"/>
+      <c r="Q59" s="214"/>
+      <c r="R59" s="17"/>
+      <c r="S59" s="21"/>
       <c r="T59" s="1"/>
       <c r="U59" s="1"/>
       <c r="V59" s="1"/>
@@ -8774,32 +9331,38 @@
       <c r="AB59" s="1"/>
       <c r="AC59" s="1"/>
     </row>
-    <row r="60" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="70">
-        <f t="shared" si="1"/>
-        <v>57</v>
-      </c>
-      <c r="B60" s="71"/>
-      <c r="C60" s="78"/>
-      <c r="D60" s="78"/>
-      <c r="E60" s="79"/>
+    <row r="60" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="20">
+        <v>58</v>
+      </c>
+      <c r="B60" s="176">
+        <v>53</v>
+      </c>
+      <c r="C60" s="79" t="s">
+        <v>406</v>
+      </c>
+      <c r="D60" s="79" t="s">
+        <v>441</v>
+      </c>
+      <c r="E60" s="187" t="s">
+        <v>407</v>
+      </c>
       <c r="F60" s="79"/>
       <c r="G60" s="79"/>
       <c r="H60" s="79"/>
       <c r="I60" s="79"/>
       <c r="J60" s="85"/>
-      <c r="K60" s="178" t="str">
+      <c r="K60" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L60" s="179"/>
-      <c r="M60" s="1"/>
-      <c r="N60" s="1"/>
-      <c r="O60" s="1"/>
-      <c r="P60" s="1"/>
-      <c r="Q60" s="1"/>
-      <c r="R60" s="1"/>
-      <c r="S60" s="1"/>
+      <c r="M60" s="215"/>
+      <c r="N60" s="213"/>
+      <c r="O60" s="213"/>
+      <c r="P60" s="213"/>
+      <c r="Q60" s="214"/>
+      <c r="R60" s="17"/>
+      <c r="S60" s="21"/>
       <c r="T60" s="1"/>
       <c r="U60" s="1"/>
       <c r="V60" s="1"/>
@@ -8811,32 +9374,40 @@
       <c r="AB60" s="1"/>
       <c r="AC60" s="1"/>
     </row>
-    <row r="61" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="70">
-        <f t="shared" si="1"/>
-        <v>58</v>
-      </c>
-      <c r="B61" s="71"/>
-      <c r="C61" s="78"/>
-      <c r="D61" s="78"/>
-      <c r="E61" s="79"/>
+    <row r="61" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="20">
+        <v>59</v>
+      </c>
+      <c r="B61" s="176">
+        <v>54</v>
+      </c>
+      <c r="C61" s="79" t="s">
+        <v>408</v>
+      </c>
+      <c r="D61" s="79" t="s">
+        <v>442</v>
+      </c>
+      <c r="E61" s="187" t="s">
+        <v>409</v>
+      </c>
       <c r="F61" s="79"/>
       <c r="G61" s="79"/>
       <c r="H61" s="79"/>
       <c r="I61" s="79"/>
       <c r="J61" s="85"/>
-      <c r="K61" s="178" t="str">
+      <c r="K61" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L61" s="179"/>
-      <c r="M61" s="1"/>
-      <c r="N61" s="1"/>
-      <c r="O61" s="1"/>
-      <c r="P61" s="1"/>
-      <c r="Q61" s="1"/>
-      <c r="R61" s="1"/>
-      <c r="S61" s="1"/>
+      <c r="M61" s="212" t="s">
+        <v>108</v>
+      </c>
+      <c r="N61" s="213"/>
+      <c r="O61" s="213"/>
+      <c r="P61" s="213"/>
+      <c r="Q61" s="214"/>
+      <c r="R61" s="88"/>
+      <c r="S61" s="21"/>
       <c r="T61" s="1"/>
       <c r="U61" s="1"/>
       <c r="V61" s="1"/>
@@ -8848,30 +9419,36 @@
       <c r="AB61" s="1"/>
       <c r="AC61" s="1"/>
     </row>
-    <row r="62" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="70">
-        <f t="shared" si="1"/>
-        <v>59</v>
-      </c>
-      <c r="B62" s="71"/>
-      <c r="C62" s="78"/>
-      <c r="D62" s="78"/>
-      <c r="E62" s="79"/>
+    <row r="62" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="20">
+        <v>60</v>
+      </c>
+      <c r="B62" s="176">
+        <v>55</v>
+      </c>
+      <c r="C62" s="79" t="s">
+        <v>410</v>
+      </c>
+      <c r="D62" s="79" t="s">
+        <v>443</v>
+      </c>
+      <c r="E62" s="187" t="s">
+        <v>411</v>
+      </c>
       <c r="F62" s="79"/>
       <c r="G62" s="79"/>
       <c r="H62" s="79"/>
       <c r="I62" s="79"/>
       <c r="J62" s="85"/>
-      <c r="K62" s="178" t="str">
+      <c r="K62" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L62" s="179"/>
-      <c r="M62" s="1"/>
-      <c r="N62" s="1"/>
-      <c r="O62" s="1"/>
-      <c r="P62" s="1"/>
-      <c r="Q62" s="1"/>
+      <c r="M62" s="216"/>
+      <c r="N62" s="217"/>
+      <c r="O62" s="217"/>
+      <c r="P62" s="217"/>
+      <c r="Q62" s="218"/>
       <c r="R62" s="1"/>
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
@@ -8886,24 +9463,36 @@
       <c r="AC62" s="1"/>
     </row>
     <row r="63" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="70">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="B63" s="71"/>
-      <c r="C63" s="78"/>
-      <c r="D63" s="78"/>
-      <c r="E63" s="79"/>
-      <c r="F63" s="79"/>
-      <c r="G63" s="79"/>
+      <c r="A63" s="20">
+        <v>61</v>
+      </c>
+      <c r="B63" s="176">
+        <v>56</v>
+      </c>
+      <c r="C63" s="79" t="s">
+        <v>412</v>
+      </c>
+      <c r="D63" s="79" t="s">
+        <v>444</v>
+      </c>
+      <c r="E63" s="187" t="s">
+        <v>413</v>
+      </c>
+      <c r="F63" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="G63" s="79" t="s">
+        <v>121</v>
+      </c>
       <c r="H63" s="79"/>
-      <c r="I63" s="79"/>
+      <c r="I63" s="79" t="s">
+        <v>291</v>
+      </c>
       <c r="J63" s="85"/>
-      <c r="K63" s="178" t="str">
+      <c r="K63" s="122" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L63" s="179"/>
+        <v>AccuracyMajor</v>
+      </c>
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
@@ -8923,24 +9512,34 @@
       <c r="AC63" s="1"/>
     </row>
     <row r="64" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="70">
-        <f t="shared" si="1"/>
-        <v>61</v>
-      </c>
-      <c r="B64" s="71"/>
-      <c r="C64" s="78"/>
-      <c r="D64" s="78"/>
-      <c r="E64" s="79"/>
-      <c r="F64" s="79"/>
+      <c r="A64" s="20">
+        <v>62</v>
+      </c>
+      <c r="B64" s="176">
+        <v>57</v>
+      </c>
+      <c r="C64" s="79" t="s">
+        <v>445</v>
+      </c>
+      <c r="D64" s="181" t="s">
+        <v>446</v>
+      </c>
+      <c r="E64" s="187" t="s">
+        <v>414</v>
+      </c>
+      <c r="F64" s="79" t="s">
+        <v>139</v>
+      </c>
       <c r="G64" s="79"/>
       <c r="H64" s="79"/>
-      <c r="I64" s="79"/>
+      <c r="I64" s="79" t="s">
+        <v>291</v>
+      </c>
       <c r="J64" s="85"/>
-      <c r="K64" s="178" t="str">
+      <c r="K64" s="122" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L64" s="179"/>
+        <v>FluencyMajor</v>
+      </c>
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
@@ -8960,24 +9559,30 @@
       <c r="AC64" s="1"/>
     </row>
     <row r="65" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="70">
-        <f t="shared" si="1"/>
-        <v>62</v>
-      </c>
-      <c r="B65" s="71"/>
-      <c r="C65" s="78"/>
-      <c r="D65" s="78"/>
-      <c r="E65" s="79"/>
+      <c r="A65" s="20">
+        <v>63</v>
+      </c>
+      <c r="B65" s="176">
+        <v>58</v>
+      </c>
+      <c r="C65" s="79" t="s">
+        <v>415</v>
+      </c>
+      <c r="D65" s="79" t="s">
+        <v>416</v>
+      </c>
+      <c r="E65" s="187" t="s">
+        <v>416</v>
+      </c>
       <c r="F65" s="79"/>
       <c r="G65" s="79"/>
       <c r="H65" s="79"/>
       <c r="I65" s="79"/>
       <c r="J65" s="85"/>
-      <c r="K65" s="178" t="str">
+      <c r="K65" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L65" s="179"/>
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
@@ -8997,24 +9602,36 @@
       <c r="AC65" s="1"/>
     </row>
     <row r="66" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="70">
-        <f t="shared" si="1"/>
-        <v>63</v>
-      </c>
-      <c r="B66" s="71"/>
-      <c r="C66" s="78"/>
-      <c r="D66" s="78"/>
-      <c r="E66" s="79"/>
-      <c r="F66" s="79"/>
-      <c r="G66" s="79"/>
+      <c r="A66" s="20">
+        <v>64</v>
+      </c>
+      <c r="B66" s="176">
+        <v>59</v>
+      </c>
+      <c r="C66" s="79" t="s">
+        <v>417</v>
+      </c>
+      <c r="D66" s="79" t="s">
+        <v>447</v>
+      </c>
+      <c r="E66" s="187" t="s">
+        <v>418</v>
+      </c>
+      <c r="F66" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="G66" s="79" t="s">
+        <v>121</v>
+      </c>
       <c r="H66" s="79"/>
-      <c r="I66" s="79"/>
+      <c r="I66" s="79" t="s">
+        <v>294</v>
+      </c>
       <c r="J66" s="85"/>
-      <c r="K66" s="178" t="str">
+      <c r="K66" s="122" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L66" s="179"/>
+        <v>AccuracyMinor</v>
+      </c>
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
@@ -9034,24 +9651,30 @@
       <c r="AC66" s="1"/>
     </row>
     <row r="67" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="70">
-        <f t="shared" si="1"/>
-        <v>64</v>
-      </c>
-      <c r="B67" s="71"/>
-      <c r="C67" s="78"/>
-      <c r="D67" s="78"/>
-      <c r="E67" s="79"/>
+      <c r="A67" s="20">
+        <v>65</v>
+      </c>
+      <c r="B67" s="176">
+        <v>60</v>
+      </c>
+      <c r="C67" s="79" t="s">
+        <v>419</v>
+      </c>
+      <c r="D67" s="79" t="s">
+        <v>448</v>
+      </c>
+      <c r="E67" s="187" t="s">
+        <v>420</v>
+      </c>
       <c r="F67" s="79"/>
       <c r="G67" s="79"/>
       <c r="H67" s="79"/>
       <c r="I67" s="79"/>
       <c r="J67" s="85"/>
-      <c r="K67" s="178" t="str">
+      <c r="K67" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L67" s="179"/>
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
@@ -9072,23 +9695,22 @@
     </row>
     <row r="68" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="70">
-        <f t="shared" si="1"/>
-        <v>65</v>
+        <f t="shared" ref="A68:A72" si="1">A67+1</f>
+        <v>66</v>
       </c>
       <c r="B68" s="71"/>
       <c r="C68" s="78"/>
       <c r="D68" s="78"/>
-      <c r="E68" s="79"/>
+      <c r="E68" s="187"/>
       <c r="F68" s="79"/>
       <c r="G68" s="79"/>
       <c r="H68" s="79"/>
       <c r="I68" s="79"/>
       <c r="J68" s="85"/>
-      <c r="K68" s="178" t="str">
-        <f t="shared" ref="K68:K103" si="2">CONCATENATE(F68,I68)</f>
+      <c r="K68" s="122" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L68" s="179"/>
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
@@ -9109,23 +9731,22 @@
     </row>
     <row r="69" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="70">
-        <f t="shared" ref="A69:A103" si="3">A68+1</f>
-        <v>66</v>
+        <f t="shared" si="1"/>
+        <v>67</v>
       </c>
       <c r="B69" s="71"/>
       <c r="C69" s="78"/>
       <c r="D69" s="78"/>
-      <c r="E69" s="79"/>
+      <c r="E69" s="187"/>
       <c r="F69" s="79"/>
       <c r="G69" s="79"/>
       <c r="H69" s="79"/>
       <c r="I69" s="79"/>
       <c r="J69" s="85"/>
-      <c r="K69" s="178" t="str">
-        <f t="shared" si="2"/>
+      <c r="K69" s="122" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L69" s="179"/>
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
@@ -9146,23 +9767,22 @@
     </row>
     <row r="70" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="70">
-        <f t="shared" si="3"/>
-        <v>67</v>
+        <f t="shared" si="1"/>
+        <v>68</v>
       </c>
       <c r="B70" s="71"/>
       <c r="C70" s="78"/>
       <c r="D70" s="78"/>
-      <c r="E70" s="79"/>
+      <c r="E70" s="187"/>
       <c r="F70" s="79"/>
       <c r="G70" s="79"/>
       <c r="H70" s="79"/>
       <c r="I70" s="79"/>
       <c r="J70" s="85"/>
-      <c r="K70" s="178" t="str">
-        <f t="shared" si="2"/>
+      <c r="K70" s="122" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L70" s="179"/>
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
@@ -9181,34 +9801,31 @@
       <c r="AB70" s="1"/>
       <c r="AC70" s="1"/>
     </row>
-    <row r="71" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="70">
-        <f t="shared" si="3"/>
-        <v>68</v>
+        <f t="shared" si="1"/>
+        <v>69</v>
       </c>
       <c r="B71" s="71"/>
       <c r="C71" s="78"/>
       <c r="D71" s="78"/>
-      <c r="E71" s="79"/>
+      <c r="E71" s="187"/>
       <c r="F71" s="79"/>
       <c r="G71" s="79"/>
       <c r="H71" s="79"/>
       <c r="I71" s="79"/>
       <c r="J71" s="85"/>
-      <c r="K71" s="178" t="str">
-        <f t="shared" si="2"/>
+      <c r="K71" s="122" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L71" s="179"/>
-      <c r="M71" s="206" t="s">
-        <v>104</v>
-      </c>
-      <c r="N71" s="207"/>
-      <c r="O71" s="207"/>
-      <c r="P71" s="207"/>
-      <c r="Q71" s="208"/>
-      <c r="R71" s="17"/>
-      <c r="S71" s="21"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="1"/>
+      <c r="R71" s="1"/>
+      <c r="S71" s="1"/>
       <c r="T71" s="1"/>
       <c r="U71" s="1"/>
       <c r="V71" s="1"/>
@@ -9220,32 +9837,31 @@
       <c r="AB71" s="1"/>
       <c r="AC71" s="1"/>
     </row>
-    <row r="72" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="70">
-        <f t="shared" si="3"/>
-        <v>69</v>
+        <f t="shared" si="1"/>
+        <v>70</v>
       </c>
       <c r="B72" s="71"/>
       <c r="C72" s="78"/>
       <c r="D72" s="78"/>
-      <c r="E72" s="79"/>
+      <c r="E72" s="187"/>
       <c r="F72" s="79"/>
       <c r="G72" s="79"/>
       <c r="H72" s="79"/>
       <c r="I72" s="79"/>
       <c r="J72" s="85"/>
-      <c r="K72" s="178" t="str">
-        <f t="shared" si="2"/>
+      <c r="K72" s="122" t="str">
+        <f t="shared" ref="K72:K107" si="2">CONCATENATE(F72,I72)</f>
         <v/>
       </c>
-      <c r="L72" s="179"/>
-      <c r="M72" s="209"/>
-      <c r="N72" s="207"/>
-      <c r="O72" s="207"/>
-      <c r="P72" s="207"/>
-      <c r="Q72" s="208"/>
-      <c r="R72" s="17"/>
-      <c r="S72" s="21"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
+      <c r="Q72" s="1"/>
+      <c r="R72" s="1"/>
+      <c r="S72" s="1"/>
       <c r="T72" s="1"/>
       <c r="U72" s="1"/>
       <c r="V72" s="1"/>
@@ -9257,34 +9873,31 @@
       <c r="AB72" s="1"/>
       <c r="AC72" s="1"/>
     </row>
-    <row r="73" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="70">
-        <f t="shared" si="3"/>
-        <v>70</v>
+        <f t="shared" ref="A73:A107" si="3">A72+1</f>
+        <v>71</v>
       </c>
       <c r="B73" s="71"/>
       <c r="C73" s="78"/>
       <c r="D73" s="78"/>
-      <c r="E73" s="79"/>
+      <c r="E73" s="187"/>
       <c r="F73" s="79"/>
       <c r="G73" s="79"/>
       <c r="H73" s="79"/>
       <c r="I73" s="79"/>
       <c r="J73" s="85"/>
-      <c r="K73" s="178" t="str">
+      <c r="K73" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L73" s="179"/>
-      <c r="M73" s="206" t="s">
-        <v>108</v>
-      </c>
-      <c r="N73" s="207"/>
-      <c r="O73" s="207"/>
-      <c r="P73" s="207"/>
-      <c r="Q73" s="208"/>
-      <c r="R73" s="88"/>
-      <c r="S73" s="21"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+      <c r="P73" s="1"/>
+      <c r="Q73" s="1"/>
+      <c r="R73" s="1"/>
+      <c r="S73" s="1"/>
       <c r="T73" s="1"/>
       <c r="U73" s="1"/>
       <c r="V73" s="1"/>
@@ -9296,30 +9909,29 @@
       <c r="AB73" s="1"/>
       <c r="AC73" s="1"/>
     </row>
-    <row r="74" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="70">
         <f t="shared" si="3"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B74" s="71"/>
       <c r="C74" s="78"/>
       <c r="D74" s="78"/>
-      <c r="E74" s="79"/>
+      <c r="E74" s="187"/>
       <c r="F74" s="79"/>
       <c r="G74" s="79"/>
       <c r="H74" s="79"/>
       <c r="I74" s="79"/>
       <c r="J74" s="85"/>
-      <c r="K74" s="178" t="str">
+      <c r="K74" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L74" s="179"/>
-      <c r="M74" s="210"/>
-      <c r="N74" s="211"/>
-      <c r="O74" s="211"/>
-      <c r="P74" s="211"/>
-      <c r="Q74" s="212"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+      <c r="O74" s="1"/>
+      <c r="P74" s="1"/>
+      <c r="Q74" s="1"/>
       <c r="R74" s="1"/>
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
@@ -9333,32 +9945,33 @@
       <c r="AB74" s="1"/>
       <c r="AC74" s="1"/>
     </row>
-    <row r="75" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="70">
         <f t="shared" si="3"/>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B75" s="71"/>
       <c r="C75" s="78"/>
       <c r="D75" s="78"/>
-      <c r="E75" s="79"/>
+      <c r="E75" s="187"/>
       <c r="F75" s="79"/>
       <c r="G75" s="79"/>
       <c r="H75" s="79"/>
       <c r="I75" s="79"/>
       <c r="J75" s="85"/>
-      <c r="K75" s="178" t="str">
+      <c r="K75" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L75" s="179"/>
-      <c r="M75" s="1"/>
-      <c r="N75" s="1"/>
-      <c r="O75" s="1"/>
-      <c r="P75" s="1"/>
-      <c r="Q75" s="1"/>
-      <c r="R75" s="1"/>
-      <c r="S75" s="1"/>
+      <c r="M75" s="212" t="s">
+        <v>104</v>
+      </c>
+      <c r="N75" s="213"/>
+      <c r="O75" s="213"/>
+      <c r="P75" s="213"/>
+      <c r="Q75" s="214"/>
+      <c r="R75" s="17"/>
+      <c r="S75" s="21"/>
       <c r="T75" s="1"/>
       <c r="U75" s="1"/>
       <c r="V75" s="1"/>
@@ -9370,32 +9983,31 @@
       <c r="AB75" s="1"/>
       <c r="AC75" s="1"/>
     </row>
-    <row r="76" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="70">
         <f t="shared" si="3"/>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B76" s="71"/>
       <c r="C76" s="78"/>
       <c r="D76" s="78"/>
-      <c r="E76" s="79"/>
+      <c r="E76" s="187"/>
       <c r="F76" s="79"/>
       <c r="G76" s="79"/>
       <c r="H76" s="79"/>
       <c r="I76" s="79"/>
       <c r="J76" s="85"/>
-      <c r="K76" s="178" t="str">
+      <c r="K76" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L76" s="179"/>
-      <c r="M76" s="1"/>
-      <c r="N76" s="1"/>
-      <c r="O76" s="1"/>
-      <c r="P76" s="1"/>
-      <c r="Q76" s="1"/>
-      <c r="R76" s="1"/>
-      <c r="S76" s="1"/>
+      <c r="M76" s="215"/>
+      <c r="N76" s="213"/>
+      <c r="O76" s="213"/>
+      <c r="P76" s="213"/>
+      <c r="Q76" s="214"/>
+      <c r="R76" s="17"/>
+      <c r="S76" s="21"/>
       <c r="T76" s="1"/>
       <c r="U76" s="1"/>
       <c r="V76" s="1"/>
@@ -9407,32 +10019,33 @@
       <c r="AB76" s="1"/>
       <c r="AC76" s="1"/>
     </row>
-    <row r="77" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="70">
         <f t="shared" si="3"/>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B77" s="71"/>
       <c r="C77" s="78"/>
       <c r="D77" s="78"/>
-      <c r="E77" s="79"/>
+      <c r="E77" s="187"/>
       <c r="F77" s="79"/>
       <c r="G77" s="79"/>
       <c r="H77" s="79"/>
       <c r="I77" s="79"/>
       <c r="J77" s="85"/>
-      <c r="K77" s="178" t="str">
+      <c r="K77" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L77" s="179"/>
-      <c r="M77" s="1"/>
-      <c r="N77" s="1"/>
-      <c r="O77" s="1"/>
-      <c r="P77" s="1"/>
-      <c r="Q77" s="1"/>
-      <c r="R77" s="1"/>
-      <c r="S77" s="1"/>
+      <c r="M77" s="212" t="s">
+        <v>108</v>
+      </c>
+      <c r="N77" s="213"/>
+      <c r="O77" s="213"/>
+      <c r="P77" s="213"/>
+      <c r="Q77" s="214"/>
+      <c r="R77" s="88"/>
+      <c r="S77" s="21"/>
       <c r="T77" s="1"/>
       <c r="U77" s="1"/>
       <c r="V77" s="1"/>
@@ -9444,30 +10057,29 @@
       <c r="AB77" s="1"/>
       <c r="AC77" s="1"/>
     </row>
-    <row r="78" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="70">
         <f t="shared" si="3"/>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B78" s="71"/>
       <c r="C78" s="78"/>
       <c r="D78" s="78"/>
-      <c r="E78" s="79"/>
+      <c r="E78" s="187"/>
       <c r="F78" s="79"/>
       <c r="G78" s="79"/>
       <c r="H78" s="79"/>
       <c r="I78" s="79"/>
       <c r="J78" s="85"/>
-      <c r="K78" s="178" t="str">
+      <c r="K78" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L78" s="179"/>
-      <c r="M78" s="1"/>
-      <c r="N78" s="1"/>
-      <c r="O78" s="1"/>
-      <c r="P78" s="1"/>
-      <c r="Q78" s="1"/>
+      <c r="M78" s="216"/>
+      <c r="N78" s="217"/>
+      <c r="O78" s="217"/>
+      <c r="P78" s="217"/>
+      <c r="Q78" s="218"/>
       <c r="R78" s="1"/>
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
@@ -9484,22 +10096,21 @@
     <row r="79" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="70">
         <f t="shared" si="3"/>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B79" s="71"/>
       <c r="C79" s="78"/>
       <c r="D79" s="78"/>
-      <c r="E79" s="79"/>
+      <c r="E79" s="187"/>
       <c r="F79" s="79"/>
       <c r="G79" s="79"/>
       <c r="H79" s="79"/>
       <c r="I79" s="79"/>
       <c r="J79" s="85"/>
-      <c r="K79" s="178" t="str">
+      <c r="K79" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L79" s="179"/>
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
@@ -9521,22 +10132,21 @@
     <row r="80" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="70">
         <f t="shared" si="3"/>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B80" s="71"/>
       <c r="C80" s="78"/>
       <c r="D80" s="78"/>
-      <c r="E80" s="79"/>
+      <c r="E80" s="187"/>
       <c r="F80" s="79"/>
       <c r="G80" s="79"/>
       <c r="H80" s="79"/>
       <c r="I80" s="79"/>
       <c r="J80" s="85"/>
-      <c r="K80" s="178" t="str">
+      <c r="K80" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L80" s="179"/>
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
@@ -9558,22 +10168,21 @@
     <row r="81" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="70">
         <f t="shared" si="3"/>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B81" s="71"/>
       <c r="C81" s="78"/>
       <c r="D81" s="78"/>
-      <c r="E81" s="79"/>
+      <c r="E81" s="187"/>
       <c r="F81" s="79"/>
       <c r="G81" s="79"/>
       <c r="H81" s="79"/>
       <c r="I81" s="79"/>
       <c r="J81" s="85"/>
-      <c r="K81" s="178" t="str">
+      <c r="K81" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L81" s="179"/>
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
@@ -9595,22 +10204,21 @@
     <row r="82" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="70">
         <f t="shared" si="3"/>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B82" s="71"/>
       <c r="C82" s="78"/>
       <c r="D82" s="78"/>
-      <c r="E82" s="79"/>
+      <c r="E82" s="187"/>
       <c r="F82" s="79"/>
       <c r="G82" s="79"/>
       <c r="H82" s="79"/>
       <c r="I82" s="79"/>
       <c r="J82" s="85"/>
-      <c r="K82" s="178" t="str">
+      <c r="K82" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L82" s="179"/>
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
@@ -9632,22 +10240,21 @@
     <row r="83" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="70">
         <f t="shared" si="3"/>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B83" s="71"/>
       <c r="C83" s="78"/>
       <c r="D83" s="78"/>
-      <c r="E83" s="79"/>
+      <c r="E83" s="187"/>
       <c r="F83" s="79"/>
       <c r="G83" s="79"/>
       <c r="H83" s="79"/>
       <c r="I83" s="79"/>
       <c r="J83" s="85"/>
-      <c r="K83" s="178" t="str">
+      <c r="K83" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L83" s="179"/>
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
@@ -9669,22 +10276,21 @@
     <row r="84" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="70">
         <f t="shared" si="3"/>
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B84" s="71"/>
       <c r="C84" s="78"/>
       <c r="D84" s="78"/>
-      <c r="E84" s="79"/>
+      <c r="E84" s="187"/>
       <c r="F84" s="79"/>
       <c r="G84" s="79"/>
       <c r="H84" s="79"/>
       <c r="I84" s="79"/>
       <c r="J84" s="85"/>
-      <c r="K84" s="178" t="str">
+      <c r="K84" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L84" s="179"/>
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
@@ -9706,22 +10312,21 @@
     <row r="85" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="70">
         <f t="shared" si="3"/>
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B85" s="71"/>
       <c r="C85" s="78"/>
       <c r="D85" s="78"/>
-      <c r="E85" s="79"/>
+      <c r="E85" s="187"/>
       <c r="F85" s="79"/>
       <c r="G85" s="79"/>
       <c r="H85" s="79"/>
       <c r="I85" s="79"/>
       <c r="J85" s="85"/>
-      <c r="K85" s="178" t="str">
+      <c r="K85" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L85" s="179"/>
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
@@ -9743,22 +10348,21 @@
     <row r="86" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="70">
         <f t="shared" si="3"/>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B86" s="71"/>
       <c r="C86" s="78"/>
       <c r="D86" s="78"/>
-      <c r="E86" s="79"/>
+      <c r="E86" s="187"/>
       <c r="F86" s="79"/>
       <c r="G86" s="79"/>
       <c r="H86" s="79"/>
       <c r="I86" s="79"/>
       <c r="J86" s="85"/>
-      <c r="K86" s="178" t="str">
+      <c r="K86" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L86" s="179"/>
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
@@ -9777,34 +10381,31 @@
       <c r="AB86" s="1"/>
       <c r="AC86" s="1"/>
     </row>
-    <row r="87" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="70">
         <f t="shared" si="3"/>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B87" s="71"/>
       <c r="C87" s="78"/>
       <c r="D87" s="78"/>
-      <c r="E87" s="79"/>
+      <c r="E87" s="187"/>
       <c r="F87" s="79"/>
       <c r="G87" s="79"/>
       <c r="H87" s="79"/>
       <c r="I87" s="79"/>
       <c r="J87" s="85"/>
-      <c r="K87" s="178" t="str">
+      <c r="K87" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L87" s="179"/>
-      <c r="M87" s="206" t="s">
-        <v>104</v>
-      </c>
-      <c r="N87" s="207"/>
-      <c r="O87" s="207"/>
-      <c r="P87" s="207"/>
-      <c r="Q87" s="208"/>
-      <c r="R87" s="17"/>
-      <c r="S87" s="21"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+      <c r="O87" s="1"/>
+      <c r="P87" s="1"/>
+      <c r="Q87" s="1"/>
+      <c r="R87" s="1"/>
+      <c r="S87" s="1"/>
       <c r="T87" s="1"/>
       <c r="U87" s="1"/>
       <c r="V87" s="1"/>
@@ -9816,32 +10417,31 @@
       <c r="AB87" s="1"/>
       <c r="AC87" s="1"/>
     </row>
-    <row r="88" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="70">
         <f t="shared" si="3"/>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B88" s="71"/>
       <c r="C88" s="78"/>
       <c r="D88" s="78"/>
-      <c r="E88" s="79"/>
+      <c r="E88" s="187"/>
       <c r="F88" s="79"/>
       <c r="G88" s="79"/>
       <c r="H88" s="79"/>
       <c r="I88" s="79"/>
       <c r="J88" s="85"/>
-      <c r="K88" s="178" t="str">
+      <c r="K88" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L88" s="179"/>
-      <c r="M88" s="209"/>
-      <c r="N88" s="207"/>
-      <c r="O88" s="207"/>
-      <c r="P88" s="207"/>
-      <c r="Q88" s="208"/>
-      <c r="R88" s="17"/>
-      <c r="S88" s="21"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+      <c r="O88" s="1"/>
+      <c r="P88" s="1"/>
+      <c r="Q88" s="1"/>
+      <c r="R88" s="1"/>
+      <c r="S88" s="1"/>
       <c r="T88" s="1"/>
       <c r="U88" s="1"/>
       <c r="V88" s="1"/>
@@ -9853,34 +10453,31 @@
       <c r="AB88" s="1"/>
       <c r="AC88" s="1"/>
     </row>
-    <row r="89" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="70">
         <f t="shared" si="3"/>
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B89" s="71"/>
       <c r="C89" s="78"/>
       <c r="D89" s="78"/>
-      <c r="E89" s="79"/>
+      <c r="E89" s="187"/>
       <c r="F89" s="79"/>
       <c r="G89" s="79"/>
       <c r="H89" s="79"/>
       <c r="I89" s="79"/>
       <c r="J89" s="85"/>
-      <c r="K89" s="178" t="str">
+      <c r="K89" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L89" s="179"/>
-      <c r="M89" s="206" t="s">
-        <v>108</v>
-      </c>
-      <c r="N89" s="207"/>
-      <c r="O89" s="207"/>
-      <c r="P89" s="207"/>
-      <c r="Q89" s="208"/>
-      <c r="R89" s="88"/>
-      <c r="S89" s="21"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+      <c r="O89" s="1"/>
+      <c r="P89" s="1"/>
+      <c r="Q89" s="1"/>
+      <c r="R89" s="1"/>
+      <c r="S89" s="1"/>
       <c r="T89" s="1"/>
       <c r="U89" s="1"/>
       <c r="V89" s="1"/>
@@ -9892,30 +10489,29 @@
       <c r="AB89" s="1"/>
       <c r="AC89" s="1"/>
     </row>
-    <row r="90" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="70">
         <f t="shared" si="3"/>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B90" s="71"/>
       <c r="C90" s="78"/>
       <c r="D90" s="78"/>
-      <c r="E90" s="79"/>
+      <c r="E90" s="187"/>
       <c r="F90" s="79"/>
       <c r="G90" s="79"/>
       <c r="H90" s="79"/>
       <c r="I90" s="79"/>
       <c r="J90" s="85"/>
-      <c r="K90" s="178" t="str">
+      <c r="K90" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L90" s="179"/>
-      <c r="M90" s="210"/>
-      <c r="N90" s="211"/>
-      <c r="O90" s="211"/>
-      <c r="P90" s="211"/>
-      <c r="Q90" s="212"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+      <c r="O90" s="1"/>
+      <c r="P90" s="1"/>
+      <c r="Q90" s="1"/>
       <c r="R90" s="1"/>
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
@@ -9929,32 +10525,33 @@
       <c r="AB90" s="1"/>
       <c r="AC90" s="1"/>
     </row>
-    <row r="91" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="70">
         <f t="shared" si="3"/>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B91" s="71"/>
       <c r="C91" s="78"/>
       <c r="D91" s="78"/>
-      <c r="E91" s="79"/>
+      <c r="E91" s="187"/>
       <c r="F91" s="79"/>
       <c r="G91" s="79"/>
       <c r="H91" s="79"/>
       <c r="I91" s="79"/>
       <c r="J91" s="85"/>
-      <c r="K91" s="178" t="str">
+      <c r="K91" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L91" s="179"/>
-      <c r="M91" s="1"/>
-      <c r="N91" s="1"/>
-      <c r="O91" s="1"/>
-      <c r="P91" s="1"/>
-      <c r="Q91" s="1"/>
-      <c r="R91" s="1"/>
-      <c r="S91" s="1"/>
+      <c r="M91" s="212" t="s">
+        <v>104</v>
+      </c>
+      <c r="N91" s="213"/>
+      <c r="O91" s="213"/>
+      <c r="P91" s="213"/>
+      <c r="Q91" s="214"/>
+      <c r="R91" s="17"/>
+      <c r="S91" s="21"/>
       <c r="T91" s="1"/>
       <c r="U91" s="1"/>
       <c r="V91" s="1"/>
@@ -9966,32 +10563,31 @@
       <c r="AB91" s="1"/>
       <c r="AC91" s="1"/>
     </row>
-    <row r="92" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="70">
         <f t="shared" si="3"/>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B92" s="71"/>
       <c r="C92" s="78"/>
       <c r="D92" s="78"/>
-      <c r="E92" s="79"/>
+      <c r="E92" s="187"/>
       <c r="F92" s="79"/>
       <c r="G92" s="79"/>
       <c r="H92" s="79"/>
       <c r="I92" s="79"/>
       <c r="J92" s="85"/>
-      <c r="K92" s="178" t="str">
+      <c r="K92" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L92" s="179"/>
-      <c r="M92" s="1"/>
-      <c r="N92" s="1"/>
-      <c r="O92" s="1"/>
-      <c r="P92" s="1"/>
-      <c r="Q92" s="1"/>
-      <c r="R92" s="1"/>
-      <c r="S92" s="1"/>
+      <c r="M92" s="215"/>
+      <c r="N92" s="213"/>
+      <c r="O92" s="213"/>
+      <c r="P92" s="213"/>
+      <c r="Q92" s="214"/>
+      <c r="R92" s="17"/>
+      <c r="S92" s="21"/>
       <c r="T92" s="1"/>
       <c r="U92" s="1"/>
       <c r="V92" s="1"/>
@@ -10003,32 +10599,33 @@
       <c r="AB92" s="1"/>
       <c r="AC92" s="1"/>
     </row>
-    <row r="93" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="70">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B93" s="71"/>
       <c r="C93" s="78"/>
       <c r="D93" s="78"/>
-      <c r="E93" s="79"/>
+      <c r="E93" s="187"/>
       <c r="F93" s="79"/>
       <c r="G93" s="79"/>
       <c r="H93" s="79"/>
       <c r="I93" s="79"/>
       <c r="J93" s="85"/>
-      <c r="K93" s="178" t="str">
+      <c r="K93" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L93" s="179"/>
-      <c r="M93" s="1"/>
-      <c r="N93" s="1"/>
-      <c r="O93" s="1"/>
-      <c r="P93" s="1"/>
-      <c r="Q93" s="1"/>
-      <c r="R93" s="1"/>
-      <c r="S93" s="1"/>
+      <c r="M93" s="212" t="s">
+        <v>108</v>
+      </c>
+      <c r="N93" s="213"/>
+      <c r="O93" s="213"/>
+      <c r="P93" s="213"/>
+      <c r="Q93" s="214"/>
+      <c r="R93" s="88"/>
+      <c r="S93" s="21"/>
       <c r="T93" s="1"/>
       <c r="U93" s="1"/>
       <c r="V93" s="1"/>
@@ -10040,30 +10637,29 @@
       <c r="AB93" s="1"/>
       <c r="AC93" s="1"/>
     </row>
-    <row r="94" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="70">
         <f t="shared" si="3"/>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B94" s="71"/>
       <c r="C94" s="78"/>
       <c r="D94" s="78"/>
-      <c r="E94" s="79"/>
+      <c r="E94" s="187"/>
       <c r="F94" s="79"/>
       <c r="G94" s="79"/>
       <c r="H94" s="79"/>
       <c r="I94" s="79"/>
       <c r="J94" s="85"/>
-      <c r="K94" s="178" t="str">
+      <c r="K94" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L94" s="179"/>
-      <c r="M94" s="1"/>
-      <c r="N94" s="1"/>
-      <c r="O94" s="1"/>
-      <c r="P94" s="1"/>
-      <c r="Q94" s="1"/>
+      <c r="M94" s="216"/>
+      <c r="N94" s="217"/>
+      <c r="O94" s="217"/>
+      <c r="P94" s="217"/>
+      <c r="Q94" s="218"/>
       <c r="R94" s="1"/>
       <c r="S94" s="1"/>
       <c r="T94" s="1"/>
@@ -10080,22 +10676,21 @@
     <row r="95" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="70">
         <f t="shared" si="3"/>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B95" s="71"/>
       <c r="C95" s="78"/>
       <c r="D95" s="78"/>
-      <c r="E95" s="79"/>
+      <c r="E95" s="187"/>
       <c r="F95" s="79"/>
       <c r="G95" s="79"/>
       <c r="H95" s="79"/>
       <c r="I95" s="79"/>
       <c r="J95" s="85"/>
-      <c r="K95" s="178" t="str">
+      <c r="K95" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L95" s="179"/>
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
       <c r="O95" s="1"/>
@@ -10117,22 +10712,21 @@
     <row r="96" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="70">
         <f t="shared" si="3"/>
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B96" s="71"/>
       <c r="C96" s="78"/>
       <c r="D96" s="78"/>
-      <c r="E96" s="79"/>
+      <c r="E96" s="187"/>
       <c r="F96" s="79"/>
       <c r="G96" s="79"/>
       <c r="H96" s="79"/>
       <c r="I96" s="79"/>
       <c r="J96" s="85"/>
-      <c r="K96" s="178" t="str">
+      <c r="K96" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L96" s="179"/>
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
       <c r="O96" s="1"/>
@@ -10154,22 +10748,21 @@
     <row r="97" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="70">
         <f t="shared" si="3"/>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B97" s="71"/>
       <c r="C97" s="78"/>
       <c r="D97" s="78"/>
-      <c r="E97" s="79"/>
+      <c r="E97" s="187"/>
       <c r="F97" s="79"/>
       <c r="G97" s="79"/>
       <c r="H97" s="79"/>
       <c r="I97" s="79"/>
       <c r="J97" s="85"/>
-      <c r="K97" s="178" t="str">
+      <c r="K97" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L97" s="179"/>
       <c r="M97" s="1"/>
       <c r="N97" s="1"/>
       <c r="O97" s="1"/>
@@ -10191,22 +10784,21 @@
     <row r="98" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="70">
         <f t="shared" si="3"/>
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B98" s="71"/>
       <c r="C98" s="78"/>
       <c r="D98" s="78"/>
-      <c r="E98" s="79"/>
+      <c r="E98" s="187"/>
       <c r="F98" s="79"/>
       <c r="G98" s="79"/>
       <c r="H98" s="79"/>
       <c r="I98" s="79"/>
       <c r="J98" s="85"/>
-      <c r="K98" s="178" t="str">
+      <c r="K98" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L98" s="179"/>
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
@@ -10228,22 +10820,21 @@
     <row r="99" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="70">
         <f t="shared" si="3"/>
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B99" s="71"/>
       <c r="C99" s="78"/>
       <c r="D99" s="78"/>
-      <c r="E99" s="79"/>
+      <c r="E99" s="187"/>
       <c r="F99" s="79"/>
       <c r="G99" s="79"/>
       <c r="H99" s="79"/>
       <c r="I99" s="79"/>
       <c r="J99" s="85"/>
-      <c r="K99" s="178" t="str">
+      <c r="K99" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L99" s="179"/>
       <c r="M99" s="1"/>
       <c r="N99" s="1"/>
       <c r="O99" s="1"/>
@@ -10265,22 +10856,21 @@
     <row r="100" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="70">
         <f t="shared" si="3"/>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B100" s="71"/>
       <c r="C100" s="78"/>
       <c r="D100" s="78"/>
-      <c r="E100" s="79"/>
+      <c r="E100" s="187"/>
       <c r="F100" s="79"/>
       <c r="G100" s="79"/>
       <c r="H100" s="79"/>
       <c r="I100" s="79"/>
       <c r="J100" s="85"/>
-      <c r="K100" s="178" t="str">
+      <c r="K100" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L100" s="179"/>
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
       <c r="O100" s="1"/>
@@ -10302,22 +10892,21 @@
     <row r="101" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="70">
         <f t="shared" si="3"/>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B101" s="71"/>
       <c r="C101" s="78"/>
       <c r="D101" s="78"/>
-      <c r="E101" s="79"/>
+      <c r="E101" s="187"/>
       <c r="F101" s="79"/>
       <c r="G101" s="79"/>
       <c r="H101" s="79"/>
       <c r="I101" s="79"/>
       <c r="J101" s="85"/>
-      <c r="K101" s="178" t="str">
+      <c r="K101" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L101" s="179"/>
       <c r="M101" s="1"/>
       <c r="N101" s="1"/>
       <c r="O101" s="1"/>
@@ -10339,22 +10928,21 @@
     <row r="102" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="70">
         <f t="shared" si="3"/>
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B102" s="71"/>
       <c r="C102" s="78"/>
       <c r="D102" s="78"/>
-      <c r="E102" s="79"/>
+      <c r="E102" s="187"/>
       <c r="F102" s="79"/>
       <c r="G102" s="79"/>
       <c r="H102" s="79"/>
       <c r="I102" s="79"/>
       <c r="J102" s="85"/>
-      <c r="K102" s="178" t="str">
+      <c r="K102" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L102" s="179"/>
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
       <c r="O102" s="1"/>
@@ -10376,22 +10964,21 @@
     <row r="103" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="70">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B103" s="71"/>
       <c r="C103" s="78"/>
       <c r="D103" s="78"/>
-      <c r="E103" s="79"/>
+      <c r="E103" s="187"/>
       <c r="F103" s="79"/>
       <c r="G103" s="79"/>
       <c r="H103" s="79"/>
       <c r="I103" s="79"/>
       <c r="J103" s="85"/>
-      <c r="K103" s="178" t="str">
+      <c r="K103" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L103" s="179"/>
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
       <c r="O103" s="1"/>
@@ -10410,8 +10997,152 @@
       <c r="AB103" s="1"/>
       <c r="AC103" s="1"/>
     </row>
-    <row r="106" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="46" t="s">
+    <row r="104" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="70">
+        <f t="shared" si="3"/>
+        <v>102</v>
+      </c>
+      <c r="B104" s="71"/>
+      <c r="C104" s="78"/>
+      <c r="D104" s="78"/>
+      <c r="E104" s="187"/>
+      <c r="F104" s="79"/>
+      <c r="G104" s="79"/>
+      <c r="H104" s="79"/>
+      <c r="I104" s="79"/>
+      <c r="J104" s="85"/>
+      <c r="K104" s="122" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
+      <c r="O104" s="1"/>
+      <c r="P104" s="1"/>
+      <c r="Q104" s="1"/>
+      <c r="R104" s="1"/>
+      <c r="S104" s="1"/>
+      <c r="T104" s="1"/>
+      <c r="U104" s="1"/>
+      <c r="V104" s="1"/>
+      <c r="W104" s="1"/>
+      <c r="X104" s="1"/>
+      <c r="Y104" s="1"/>
+      <c r="Z104" s="1"/>
+      <c r="AA104" s="1"/>
+      <c r="AB104" s="1"/>
+      <c r="AC104" s="1"/>
+    </row>
+    <row r="105" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="70">
+        <f t="shared" si="3"/>
+        <v>103</v>
+      </c>
+      <c r="B105" s="71"/>
+      <c r="C105" s="78"/>
+      <c r="D105" s="78"/>
+      <c r="E105" s="187"/>
+      <c r="F105" s="79"/>
+      <c r="G105" s="79"/>
+      <c r="H105" s="79"/>
+      <c r="I105" s="79"/>
+      <c r="J105" s="85"/>
+      <c r="K105" s="122" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M105" s="1"/>
+      <c r="N105" s="1"/>
+      <c r="O105" s="1"/>
+      <c r="P105" s="1"/>
+      <c r="Q105" s="1"/>
+      <c r="R105" s="1"/>
+      <c r="S105" s="1"/>
+      <c r="T105" s="1"/>
+      <c r="U105" s="1"/>
+      <c r="V105" s="1"/>
+      <c r="W105" s="1"/>
+      <c r="X105" s="1"/>
+      <c r="Y105" s="1"/>
+      <c r="Z105" s="1"/>
+      <c r="AA105" s="1"/>
+      <c r="AB105" s="1"/>
+      <c r="AC105" s="1"/>
+    </row>
+    <row r="106" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="70">
+        <f t="shared" si="3"/>
+        <v>104</v>
+      </c>
+      <c r="B106" s="71"/>
+      <c r="C106" s="78"/>
+      <c r="D106" s="78"/>
+      <c r="E106" s="187"/>
+      <c r="F106" s="79"/>
+      <c r="G106" s="79"/>
+      <c r="H106" s="79"/>
+      <c r="I106" s="79"/>
+      <c r="J106" s="85"/>
+      <c r="K106" s="122" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M106" s="1"/>
+      <c r="N106" s="1"/>
+      <c r="O106" s="1"/>
+      <c r="P106" s="1"/>
+      <c r="Q106" s="1"/>
+      <c r="R106" s="1"/>
+      <c r="S106" s="1"/>
+      <c r="T106" s="1"/>
+      <c r="U106" s="1"/>
+      <c r="V106" s="1"/>
+      <c r="W106" s="1"/>
+      <c r="X106" s="1"/>
+      <c r="Y106" s="1"/>
+      <c r="Z106" s="1"/>
+      <c r="AA106" s="1"/>
+      <c r="AB106" s="1"/>
+      <c r="AC106" s="1"/>
+    </row>
+    <row r="107" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="70">
+        <f t="shared" si="3"/>
+        <v>105</v>
+      </c>
+      <c r="B107" s="71"/>
+      <c r="C107" s="78"/>
+      <c r="D107" s="78"/>
+      <c r="E107" s="187"/>
+      <c r="F107" s="79"/>
+      <c r="G107" s="79"/>
+      <c r="H107" s="79"/>
+      <c r="I107" s="79"/>
+      <c r="J107" s="85"/>
+      <c r="K107" s="122" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M107" s="1"/>
+      <c r="N107" s="1"/>
+      <c r="O107" s="1"/>
+      <c r="P107" s="1"/>
+      <c r="Q107" s="1"/>
+      <c r="R107" s="1"/>
+      <c r="S107" s="1"/>
+      <c r="T107" s="1"/>
+      <c r="U107" s="1"/>
+      <c r="V107" s="1"/>
+      <c r="W107" s="1"/>
+      <c r="X107" s="1"/>
+      <c r="Y107" s="1"/>
+      <c r="Z107" s="1"/>
+      <c r="AA107" s="1"/>
+      <c r="AB107" s="1"/>
+      <c r="AC107" s="1"/>
+    </row>
+    <row r="110" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="46" t="s">
         <v>67</v>
       </c>
     </row>
@@ -10425,31 +11156,31 @@
     <mergeCell ref="M6:Q7"/>
     <mergeCell ref="M5:Q5"/>
     <mergeCell ref="M4:Q4"/>
-    <mergeCell ref="M27:Q27"/>
     <mergeCell ref="M28:Q28"/>
-    <mergeCell ref="M29:Q30"/>
-    <mergeCell ref="M31:Q32"/>
-    <mergeCell ref="M33:Q34"/>
-    <mergeCell ref="M35:Q36"/>
-    <mergeCell ref="M49:Q49"/>
-    <mergeCell ref="M50:Q50"/>
-    <mergeCell ref="M51:Q52"/>
-    <mergeCell ref="M53:Q54"/>
-    <mergeCell ref="M87:Q88"/>
-    <mergeCell ref="M89:Q90"/>
-    <mergeCell ref="M55:Q56"/>
-    <mergeCell ref="M57:Q58"/>
-    <mergeCell ref="M71:Q72"/>
-    <mergeCell ref="M73:Q74"/>
+    <mergeCell ref="M29:Q29"/>
+    <mergeCell ref="M30:Q31"/>
+    <mergeCell ref="M32:Q33"/>
+    <mergeCell ref="M34:Q35"/>
+    <mergeCell ref="M36:Q37"/>
+    <mergeCell ref="M52:Q52"/>
+    <mergeCell ref="M53:Q53"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="M56:Q58"/>
+    <mergeCell ref="M91:Q92"/>
+    <mergeCell ref="M93:Q94"/>
+    <mergeCell ref="M59:Q60"/>
+    <mergeCell ref="M61:Q62"/>
+    <mergeCell ref="M75:Q76"/>
+    <mergeCell ref="M77:Q78"/>
   </mergeCells>
   <dataValidations xWindow="1164" yWindow="337" count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="I3:I103" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="I3:I107" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>severityLevel</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" prompt=" - " sqref="F3:F103" xr:uid="{00000000-0002-0000-0300-000001000000}">
+    <dataValidation type="list" showInputMessage="1" prompt=" - " sqref="F3:F107" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>errorCriteria</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G103" xr:uid="{00000000-0002-0000-0300-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G107" xr:uid="{00000000-0002-0000-0300-000002000000}">
       <formula1>INDIRECT(SUBSTITUTE($F3," ",""))</formula1>
     </dataValidation>
   </dataValidations>
@@ -10756,31 +11487,31 @@
         <v>83</v>
       </c>
       <c r="D12" s="67">
-        <f>COUNTIFS( ReviewEnvironment!K3:K103,"accuracyNeutral")+COUNTIFS( ReviewEnvironment!K3:K103,"accuracyMinor")+COUNTIFS( ReviewEnvironment!K3:K103,"accuracyMajor")+COUNTIFS( ReviewEnvironment!K3:K103,"accuracyCritical")</f>
-        <v>13</v>
+        <f>COUNTIFS( ReviewEnvironment!K3:K107,"accuracyNeutral")+COUNTIFS( ReviewEnvironment!K3:K107,"accuracyMinor")+COUNTIFS( ReviewEnvironment!K3:K107,"accuracyMajor")+COUNTIFS( ReviewEnvironment!K3:K107,"accuracyCritical")</f>
+        <v>26</v>
       </c>
       <c r="E12" s="61">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$103,"accuracyNeutral")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$107,"accuracyNeutral")</f>
         <v>0</v>
       </c>
       <c r="F12" s="61">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$103,"accuracyMinor")</f>
-        <v>7</v>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$107,"accuracyMinor")</f>
+        <v>10</v>
       </c>
       <c r="G12" s="61">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$103,"accuracyMajor")</f>
-        <v>6</v>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$107,"accuracyMajor")</f>
+        <v>15</v>
       </c>
       <c r="H12" s="61">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$103,"accuracyCritical")</f>
-        <v>0</v>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$107,"accuracyCritical")</f>
+        <v>1</v>
       </c>
       <c r="I12" s="61">
         <f>E12*PenaltiesThresholds!B4+F12*PenaltiesThresholds!B5+G12*PenaltiesThresholds!B6+H12*PenaltiesThresholds!B7</f>
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="J12" s="61">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$103,"accuracyKudos")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$107,"accuracyKudos")</f>
         <v>0</v>
       </c>
       <c r="K12" s="55"/>
@@ -10800,31 +11531,31 @@
         <v>139</v>
       </c>
       <c r="D13" s="67">
-        <f>COUNTIFS( ReviewEnvironment!K3:K103,"fluencyNeutral")+COUNTIFS( ReviewEnvironment!K3:K103,"fluencyMinor")+COUNTIFS( ReviewEnvironment!K3:K103,"fluencyMajor")+COUNTIFS( ReviewEnvironment!K3:K103,"fluencyCritical")</f>
-        <v>5</v>
+        <f>COUNTIFS( ReviewEnvironment!K3:K107,"fluencyNeutral")+COUNTIFS( ReviewEnvironment!K3:K107,"fluencyMinor")+COUNTIFS( ReviewEnvironment!K3:K107,"fluencyMajor")+COUNTIFS( ReviewEnvironment!K3:K107,"fluencyCritical")</f>
+        <v>8</v>
       </c>
       <c r="E13" s="61">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$103,"fluencyNeutral")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$107,"fluencyNeutral")</f>
         <v>0</v>
       </c>
       <c r="F13" s="61">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$103,"fluencyMinor")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$107,"fluencyMinor")</f>
         <v>3</v>
       </c>
       <c r="G13" s="61">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$103,"fluencyMajor")</f>
-        <v>2</v>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$107,"fluencyMajor")</f>
+        <v>4</v>
       </c>
       <c r="H13" s="61">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$103,"fluencyCritical")</f>
-        <v>0</v>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$107,"fluencyCritical")</f>
+        <v>1</v>
       </c>
       <c r="I13" s="61">
         <f>E13*PenaltiesThresholds!B4+F13*PenaltiesThresholds!B5+G13*PenaltiesThresholds!B6+H13*PenaltiesThresholds!B7</f>
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="J13" s="61">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$103,"fluencyKudos")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$107,"fluencyKudos")</f>
         <v>0</v>
       </c>
       <c r="K13" s="55"/>
@@ -10844,23 +11575,23 @@
         <v>82</v>
       </c>
       <c r="D14" s="67">
-        <f>COUNTIFS( ReviewEnvironment!K3:K103,"terminologyNeutral")+COUNTIFS( ReviewEnvironment!K3:K103,"terminologyMinor")+COUNTIFS( ReviewEnvironment!K3:K103,"terminologyMajor")+COUNTIFS( ReviewEnvironment!K3:K103,"terminologyCritical")</f>
+        <f>COUNTIFS( ReviewEnvironment!K3:K107,"terminologyNeutral")+COUNTIFS( ReviewEnvironment!K3:K107,"terminologyMinor")+COUNTIFS( ReviewEnvironment!K3:K107,"terminologyMajor")+COUNTIFS( ReviewEnvironment!K3:K107,"terminologyCritical")</f>
         <v>0</v>
       </c>
       <c r="E14" s="61">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$103,"terminologyNeutral")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$107,"terminologyNeutral")</f>
         <v>0</v>
       </c>
       <c r="F14" s="61">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$103,"terminologyMinor")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$107,"terminologyMinor")</f>
         <v>0</v>
       </c>
       <c r="G14" s="61">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$103,"terminologyMajor")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$107,"terminologyMajor")</f>
         <v>0</v>
       </c>
       <c r="H14" s="61">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$103,"terminologyCritical")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$107,"terminologyCritical")</f>
         <v>0</v>
       </c>
       <c r="I14" s="61">
@@ -10868,7 +11599,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="61">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$103,"terminologyKudos")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$107,"terminologyKudos")</f>
         <v>0</v>
       </c>
       <c r="K14" s="55"/>
@@ -10888,23 +11619,23 @@
         <v>84</v>
       </c>
       <c r="D15" s="67">
-        <f>COUNTIFS( ReviewEnvironment!K3:K103,"styleNeutral")+COUNTIFS( ReviewEnvironment!K3:K103,"styleMinor")+COUNTIFS( ReviewEnvironment!K3:K103,"styleMajor")+COUNTIFS( ReviewEnvironment!K3:K103,"styleCritical")</f>
+        <f>COUNTIFS( ReviewEnvironment!K3:K107,"styleNeutral")+COUNTIFS( ReviewEnvironment!K3:K107,"styleMinor")+COUNTIFS( ReviewEnvironment!K3:K107,"styleMajor")+COUNTIFS( ReviewEnvironment!K3:K107,"styleCritical")</f>
         <v>0</v>
       </c>
       <c r="E15" s="61">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$103,"styleNeutral")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$107,"styleNeutral")</f>
         <v>0</v>
       </c>
       <c r="F15" s="61">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$103,"styleMinor")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$107,"styleMinor")</f>
         <v>0</v>
       </c>
       <c r="G15" s="61">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$103,"styleMajor")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$107,"styleMajor")</f>
         <v>0</v>
       </c>
       <c r="H15" s="61">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$103,"styleCritical")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$107,"styleCritical")</f>
         <v>0</v>
       </c>
       <c r="I15" s="61">
@@ -10912,7 +11643,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="61">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$103,"styleKudos")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$107,"styleKudos")</f>
         <v>0</v>
       </c>
       <c r="K15" s="55"/>
@@ -10932,23 +11663,23 @@
         <v>157</v>
       </c>
       <c r="D16" s="67">
-        <f>COUNTIFS( ReviewEnvironment!K3:K103,"designNeutral")+COUNTIFS( ReviewEnvironment!K3:K103,"designMinor")+COUNTIFS( ReviewEnvironment!K3:K103,"designMajor")+COUNTIFS( ReviewEnvironment!K3:K103,"designCritical")</f>
+        <f>COUNTIFS( ReviewEnvironment!K3:K107,"designNeutral")+COUNTIFS( ReviewEnvironment!K3:K107,"designMinor")+COUNTIFS( ReviewEnvironment!K3:K107,"designMajor")+COUNTIFS( ReviewEnvironment!K3:K107,"designCritical")</f>
         <v>0</v>
       </c>
       <c r="E16" s="61">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$103,"designNeutral")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$107,"designNeutral")</f>
         <v>0</v>
       </c>
       <c r="F16" s="61">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$103,"designMinor")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$107,"designMinor")</f>
         <v>0</v>
       </c>
       <c r="G16" s="61">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$103,"designMajor")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$107,"designMajor")</f>
         <v>0</v>
       </c>
       <c r="H16" s="61">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$103,"designCritical")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$107,"designCritical")</f>
         <v>0</v>
       </c>
       <c r="I16" s="61">
@@ -10956,7 +11687,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="61">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$103,"designKudos")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$107,"designKudos")</f>
         <v>0</v>
       </c>
       <c r="K16" s="55"/>
@@ -10976,23 +11707,23 @@
         <v>164</v>
       </c>
       <c r="D17" s="67">
-        <f>COUNTIFS( ReviewEnvironment!K3:K103,"locale conventionNeutral")+COUNTIFS( ReviewEnvironment!K3:K103,"locale conventionMinor")+COUNTIFS( ReviewEnvironment!K3:K103,"locale conventionMajor")+COUNTIFS( ReviewEnvironment!K3:K103,"locale conventionCritical")</f>
+        <f>COUNTIFS( ReviewEnvironment!K3:K107,"locale conventionNeutral")+COUNTIFS( ReviewEnvironment!K3:K107,"locale conventionMinor")+COUNTIFS( ReviewEnvironment!K3:K107,"locale conventionMajor")+COUNTIFS( ReviewEnvironment!K3:K107,"locale conventionCritical")</f>
         <v>0</v>
       </c>
       <c r="E17" s="61">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$103,"locale conventionNeutral")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$107,"locale conventionNeutral")</f>
         <v>0</v>
       </c>
       <c r="F17" s="61">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$103,"locale conventionMinor")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$107,"locale conventionMinor")</f>
         <v>0</v>
       </c>
       <c r="G17" s="61">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$103,"locale conventionMajor")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$107,"locale conventionMajor")</f>
         <v>0</v>
       </c>
       <c r="H17" s="61">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$103,"locale conventionCritical")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$107,"locale conventionCritical")</f>
         <v>0</v>
       </c>
       <c r="I17" s="61">
@@ -11000,7 +11731,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="61">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$103,"locale conventionKudos")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$107,"locale conventionKudos")</f>
         <v>0</v>
       </c>
       <c r="K17" s="55"/>
@@ -11020,23 +11751,23 @@
         <v>172</v>
       </c>
       <c r="D18" s="67">
-        <f>COUNTIFS( ReviewEnvironment!K3:K103,"verityNeutral")+COUNTIFS( ReviewEnvironment!K3:K103,"verityMinor")+COUNTIFS( ReviewEnvironment!K3:K103,"verityMajor")+COUNTIFS( ReviewEnvironment!K3:K103,"verityCritical")</f>
+        <f>COUNTIFS( ReviewEnvironment!K3:K107,"verityNeutral")+COUNTIFS( ReviewEnvironment!K3:K107,"verityMinor")+COUNTIFS( ReviewEnvironment!K3:K107,"verityMajor")+COUNTIFS( ReviewEnvironment!K3:K107,"verityCritical")</f>
         <v>0</v>
       </c>
       <c r="E18" s="61">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$103,"verityNeutral")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$107,"verityNeutral")</f>
         <v>0</v>
       </c>
       <c r="F18" s="61">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$103,"verityMinor")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$107,"verityMinor")</f>
         <v>0</v>
       </c>
       <c r="G18" s="61">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$103,"verityMajor")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$107,"verityMajor")</f>
         <v>0</v>
       </c>
       <c r="H18" s="61">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$103,"verityCritical")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$107,"verityCritical")</f>
         <v>0</v>
       </c>
       <c r="I18" s="61">
@@ -11044,7 +11775,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="61">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$103,"verityKudos")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$107,"verityKudos")</f>
         <v>0</v>
       </c>
       <c r="K18" s="55"/>
@@ -11064,23 +11795,23 @@
         <v>87</v>
       </c>
       <c r="D19" s="67">
-        <f>COUNTIFS( ReviewEnvironment!K3:K103,"otherNeutral")+COUNTIFS( ReviewEnvironment!K3:K103,"otherMinor")+COUNTIFS( ReviewEnvironment!K3:K103,"otherMajor")+COUNTIFS( ReviewEnvironment!K3:K103,"styleCritical")</f>
+        <f>COUNTIFS( ReviewEnvironment!K3:K107,"otherNeutral")+COUNTIFS( ReviewEnvironment!K3:K107,"otherMinor")+COUNTIFS( ReviewEnvironment!K3:K107,"otherMajor")+COUNTIFS( ReviewEnvironment!K3:K107,"styleCritical")</f>
         <v>0</v>
       </c>
       <c r="E19" s="61">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$103,"otherNeutral")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$107,"otherNeutral")</f>
         <v>0</v>
       </c>
       <c r="F19" s="61">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$103,"otherMinor")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$107,"otherMinor")</f>
         <v>0</v>
       </c>
       <c r="G19" s="61">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$103,"otherMajor")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$107,"otherMajor")</f>
         <v>0</v>
       </c>
       <c r="H19" s="61">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$103,"otherCritical")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$107,"otherCritical")</f>
         <v>0</v>
       </c>
       <c r="I19" s="61">
@@ -11088,7 +11819,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="61">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$103,"otherKudos")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$107,"otherKudos")</f>
         <v>0</v>
       </c>
       <c r="K19" s="55"/>
@@ -11151,7 +11882,7 @@
       </c>
       <c r="D22" s="104">
         <f t="shared" ref="D22:J22" si="0">SUM(D12:D21)</f>
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="E22" s="107">
         <f t="shared" si="0"/>
@@ -11159,19 +11890,19 @@
       </c>
       <c r="F22" s="107">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G22" s="107">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="H22" s="108">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" s="108">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="J22" s="108">
         <f t="shared" si="0"/>
@@ -11349,10 +12080,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="221" t="s">
+      <c r="A1" s="227" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="185"/>
+      <c r="B1" s="191"/>
       <c r="C1" s="37"/>
       <c r="D1" s="37"/>
       <c r="E1" s="21"/>
@@ -11455,7 +12186,7 @@
     </row>
     <row r="4" spans="1:29" ht="42" x14ac:dyDescent="0.25">
       <c r="A4" s="21"/>
-      <c r="B4" s="225" t="s">
+      <c r="B4" s="231" t="s">
         <v>83</v>
       </c>
       <c r="C4" s="64"/>
@@ -11492,7 +12223,7 @@
     </row>
     <row r="5" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A5" s="59"/>
-      <c r="B5" s="226"/>
+      <c r="B5" s="232"/>
       <c r="C5" s="64" t="s">
         <v>119</v>
       </c>
@@ -11529,7 +12260,7 @@
     </row>
     <row r="6" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A6" s="59"/>
-      <c r="B6" s="226"/>
+      <c r="B6" s="232"/>
       <c r="C6" s="64" t="s">
         <v>120</v>
       </c>
@@ -11566,7 +12297,7 @@
     </row>
     <row r="7" spans="1:29" ht="42" x14ac:dyDescent="0.35">
       <c r="A7" s="59"/>
-      <c r="B7" s="226"/>
+      <c r="B7" s="232"/>
       <c r="C7" s="64" t="s">
         <v>121</v>
       </c>
@@ -11603,7 +12334,7 @@
     </row>
     <row r="8" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A8" s="59"/>
-      <c r="B8" s="226"/>
+      <c r="B8" s="232"/>
       <c r="C8" s="64" t="s">
         <v>122</v>
       </c>
@@ -11640,7 +12371,7 @@
     </row>
     <row r="9" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A9" s="59"/>
-      <c r="B9" s="226"/>
+      <c r="B9" s="232"/>
       <c r="C9" s="64" t="s">
         <v>123</v>
       </c>
@@ -11677,7 +12408,7 @@
     </row>
     <row r="10" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A10" s="59"/>
-      <c r="B10" s="226"/>
+      <c r="B10" s="232"/>
       <c r="C10" s="64" t="s">
         <v>86</v>
       </c>
@@ -11714,7 +12445,7 @@
     </row>
     <row r="11" spans="1:29" ht="42" x14ac:dyDescent="0.35">
       <c r="A11" s="59"/>
-      <c r="B11" s="227"/>
+      <c r="B11" s="233"/>
       <c r="C11" s="64" t="s">
         <v>124</v>
       </c>
@@ -11753,7 +12484,7 @@
       <c r="A12" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="216" t="s">
+      <c r="B12" s="222" t="s">
         <v>139</v>
       </c>
       <c r="C12" s="113"/>
@@ -11790,7 +12521,7 @@
     </row>
     <row r="13" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A13" s="59"/>
-      <c r="B13" s="223"/>
+      <c r="B13" s="229"/>
       <c r="C13" s="113" t="s">
         <v>140</v>
       </c>
@@ -11827,7 +12558,7 @@
     </row>
     <row r="14" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A14" s="59"/>
-      <c r="B14" s="223"/>
+      <c r="B14" s="229"/>
       <c r="C14" s="113" t="s">
         <v>141</v>
       </c>
@@ -11864,7 +12595,7 @@
     </row>
     <row r="15" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A15" s="59"/>
-      <c r="B15" s="223"/>
+      <c r="B15" s="229"/>
       <c r="C15" s="113" t="s">
         <v>142</v>
       </c>
@@ -11901,7 +12632,7 @@
     </row>
     <row r="16" spans="1:29" ht="42" x14ac:dyDescent="0.35">
       <c r="A16" s="59"/>
-      <c r="B16" s="223"/>
+      <c r="B16" s="229"/>
       <c r="C16" s="113" t="s">
         <v>143</v>
       </c>
@@ -11938,7 +12669,7 @@
     </row>
     <row r="17" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A17" s="59"/>
-      <c r="B17" s="223"/>
+      <c r="B17" s="229"/>
       <c r="C17" s="113" t="s">
         <v>144</v>
       </c>
@@ -11975,7 +12706,7 @@
     </row>
     <row r="18" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A18" s="59"/>
-      <c r="B18" s="223"/>
+      <c r="B18" s="229"/>
       <c r="C18" s="113" t="s">
         <v>145</v>
       </c>
@@ -12012,7 +12743,7 @@
     </row>
     <row r="19" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A19" s="59"/>
-      <c r="B19" s="224"/>
+      <c r="B19" s="230"/>
       <c r="C19" s="113" t="s">
         <v>146</v>
       </c>
@@ -12049,7 +12780,7 @@
     </row>
     <row r="20" spans="1:29" ht="42" x14ac:dyDescent="0.35">
       <c r="A20" s="59"/>
-      <c r="B20" s="222" t="s">
+      <c r="B20" s="228" t="s">
         <v>82</v>
       </c>
       <c r="C20" s="64"/>
@@ -12086,7 +12817,7 @@
     </row>
     <row r="21" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A21" s="59"/>
-      <c r="B21" s="223"/>
+      <c r="B21" s="229"/>
       <c r="C21" s="113" t="s">
         <v>147</v>
       </c>
@@ -12123,7 +12854,7 @@
     </row>
     <row r="22" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A22" s="59"/>
-      <c r="B22" s="224"/>
+      <c r="B22" s="230"/>
       <c r="C22" s="113" t="s">
         <v>148</v>
       </c>
@@ -12160,7 +12891,7 @@
     </row>
     <row r="23" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A23" s="59"/>
-      <c r="B23" s="222" t="s">
+      <c r="B23" s="228" t="s">
         <v>84</v>
       </c>
       <c r="C23" s="64"/>
@@ -12197,7 +12928,7 @@
     </row>
     <row r="24" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A24" s="59"/>
-      <c r="B24" s="223"/>
+      <c r="B24" s="229"/>
       <c r="C24" s="113" t="s">
         <v>152</v>
       </c>
@@ -12234,7 +12965,7 @@
     </row>
     <row r="25" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A25" s="59"/>
-      <c r="B25" s="223"/>
+      <c r="B25" s="229"/>
       <c r="C25" s="113" t="s">
         <v>153</v>
       </c>
@@ -12271,7 +13002,7 @@
     </row>
     <row r="26" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A26" s="59"/>
-      <c r="B26" s="223"/>
+      <c r="B26" s="229"/>
       <c r="C26" s="113" t="s">
         <v>154</v>
       </c>
@@ -12308,7 +13039,7 @@
     </row>
     <row r="27" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A27" s="59"/>
-      <c r="B27" s="223"/>
+      <c r="B27" s="229"/>
       <c r="C27" s="113" t="s">
         <v>155</v>
       </c>
@@ -12345,7 +13076,7 @@
     </row>
     <row r="28" spans="1:29" ht="42" x14ac:dyDescent="0.35">
       <c r="A28" s="59"/>
-      <c r="B28" s="224"/>
+      <c r="B28" s="230"/>
       <c r="C28" s="113" t="s">
         <v>156</v>
       </c>
@@ -12382,7 +13113,7 @@
     </row>
     <row r="29" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A29" s="59"/>
-      <c r="B29" s="216" t="s">
+      <c r="B29" s="222" t="s">
         <v>157</v>
       </c>
       <c r="C29" s="113"/>
@@ -12419,7 +13150,7 @@
     </row>
     <row r="30" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A30" s="59"/>
-      <c r="B30" s="217"/>
+      <c r="B30" s="223"/>
       <c r="C30" s="113" t="s">
         <v>159</v>
       </c>
@@ -12456,7 +13187,7 @@
     </row>
     <row r="31" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A31" s="59"/>
-      <c r="B31" s="217"/>
+      <c r="B31" s="223"/>
       <c r="C31" s="113" t="s">
         <v>160</v>
       </c>
@@ -12493,7 +13224,7 @@
     </row>
     <row r="32" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A32" s="59"/>
-      <c r="B32" s="217"/>
+      <c r="B32" s="223"/>
       <c r="C32" s="113" t="s">
         <v>161</v>
       </c>
@@ -12530,7 +13261,7 @@
     </row>
     <row r="33" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A33" s="59"/>
-      <c r="B33" s="217"/>
+      <c r="B33" s="223"/>
       <c r="C33" s="113" t="s">
         <v>162</v>
       </c>
@@ -12567,7 +13298,7 @@
     </row>
     <row r="34" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A34" s="59"/>
-      <c r="B34" s="218"/>
+      <c r="B34" s="224"/>
       <c r="C34" s="133" t="s">
         <v>163</v>
       </c>
@@ -12604,7 +13335,7 @@
     </row>
     <row r="35" spans="1:29" ht="42" x14ac:dyDescent="0.35">
       <c r="A35" s="59"/>
-      <c r="B35" s="219" t="s">
+      <c r="B35" s="225" t="s">
         <v>164</v>
       </c>
       <c r="C35" s="113"/>
@@ -12641,7 +13372,7 @@
     </row>
     <row r="36" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A36" s="59"/>
-      <c r="B36" s="217"/>
+      <c r="B36" s="223"/>
       <c r="C36" s="113" t="s">
         <v>167</v>
       </c>
@@ -12678,7 +13409,7 @@
     </row>
     <row r="37" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A37" s="59"/>
-      <c r="B37" s="217"/>
+      <c r="B37" s="223"/>
       <c r="C37" s="113" t="s">
         <v>166</v>
       </c>
@@ -12715,7 +13446,7 @@
     </row>
     <row r="38" spans="1:29" ht="42" x14ac:dyDescent="0.35">
       <c r="A38" s="59"/>
-      <c r="B38" s="217"/>
+      <c r="B38" s="223"/>
       <c r="C38" s="113" t="s">
         <v>168</v>
       </c>
@@ -12752,7 +13483,7 @@
     </row>
     <row r="39" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A39" s="59"/>
-      <c r="B39" s="217"/>
+      <c r="B39" s="223"/>
       <c r="C39" s="113" t="s">
         <v>169</v>
       </c>
@@ -12789,7 +13520,7 @@
     </row>
     <row r="40" spans="1:29" ht="42" x14ac:dyDescent="0.35">
       <c r="A40" s="59"/>
-      <c r="B40" s="217"/>
+      <c r="B40" s="223"/>
       <c r="C40" s="133" t="s">
         <v>170</v>
       </c>
@@ -12826,7 +13557,7 @@
     </row>
     <row r="41" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A41" s="59"/>
-      <c r="B41" s="220"/>
+      <c r="B41" s="226"/>
       <c r="C41" s="133" t="s">
         <v>171</v>
       </c>
@@ -12863,7 +13594,7 @@
     </row>
     <row r="42" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A42" s="59"/>
-      <c r="B42" s="219" t="s">
+      <c r="B42" s="225" t="s">
         <v>172</v>
       </c>
       <c r="C42" s="113"/>
@@ -12900,7 +13631,7 @@
     </row>
     <row r="43" spans="1:29" ht="42" x14ac:dyDescent="0.35">
       <c r="A43" s="59"/>
-      <c r="B43" s="220"/>
+      <c r="B43" s="226"/>
       <c r="C43" s="113" t="s">
         <v>173</v>
       </c>
@@ -13535,13 +14266,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="221" t="s">
+      <c r="A1" s="227" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="185"/>
-      <c r="E1" s="185"/>
+      <c r="B1" s="191"/>
+      <c r="C1" s="191"/>
+      <c r="D1" s="191"/>
+      <c r="E1" s="191"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -13654,12 +14385,12 @@
       </c>
       <c r="E5" s="63"/>
       <c r="F5" s="12"/>
-      <c r="G5" s="236" t="s">
+      <c r="G5" s="242" t="s">
         <v>289</v>
       </c>
-      <c r="H5" s="237"/>
-      <c r="I5" s="237"/>
-      <c r="J5" s="238"/>
+      <c r="H5" s="243"/>
+      <c r="I5" s="243"/>
+      <c r="J5" s="244"/>
       <c r="K5" s="62"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
@@ -13685,10 +14416,10 @@
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
-      <c r="G6" s="232"/>
-      <c r="H6" s="230"/>
-      <c r="I6" s="230"/>
-      <c r="J6" s="231"/>
+      <c r="G6" s="238"/>
+      <c r="H6" s="236"/>
+      <c r="I6" s="236"/>
+      <c r="J6" s="237"/>
       <c r="K6" s="62"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
@@ -13714,10 +14445,10 @@
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
-      <c r="G7" s="232"/>
-      <c r="H7" s="230"/>
-      <c r="I7" s="230"/>
-      <c r="J7" s="231"/>
+      <c r="G7" s="238"/>
+      <c r="H7" s="236"/>
+      <c r="I7" s="236"/>
+      <c r="J7" s="237"/>
       <c r="K7" s="62"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
@@ -13738,10 +14469,10 @@
       <c r="D8" s="62"/>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
-      <c r="G8" s="232"/>
-      <c r="H8" s="230"/>
-      <c r="I8" s="230"/>
-      <c r="J8" s="231"/>
+      <c r="G8" s="238"/>
+      <c r="H8" s="236"/>
+      <c r="I8" s="236"/>
+      <c r="J8" s="237"/>
       <c r="K8" s="12"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
@@ -13762,12 +14493,12 @@
       <c r="D9" s="62"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
-      <c r="G9" s="229" t="s">
+      <c r="G9" s="235" t="s">
         <v>78</v>
       </c>
-      <c r="H9" s="230"/>
-      <c r="I9" s="230"/>
-      <c r="J9" s="231"/>
+      <c r="H9" s="236"/>
+      <c r="I9" s="236"/>
+      <c r="J9" s="237"/>
       <c r="K9" s="62"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
@@ -13785,10 +14516,10 @@
       <c r="D10" s="62"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
-      <c r="G10" s="232"/>
-      <c r="H10" s="230"/>
-      <c r="I10" s="230"/>
-      <c r="J10" s="231"/>
+      <c r="G10" s="238"/>
+      <c r="H10" s="236"/>
+      <c r="I10" s="236"/>
+      <c r="J10" s="237"/>
       <c r="K10" s="62"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
@@ -13807,18 +14538,18 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11" spans="1:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="228" t="s">
+      <c r="A11" s="234" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="185"/>
-      <c r="C11" s="185"/>
+      <c r="B11" s="191"/>
+      <c r="C11" s="191"/>
       <c r="D11" s="62"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
-      <c r="G11" s="233"/>
-      <c r="H11" s="234"/>
-      <c r="I11" s="234"/>
-      <c r="J11" s="235"/>
+      <c r="G11" s="239"/>
+      <c r="H11" s="240"/>
+      <c r="I11" s="240"/>
+      <c r="J11" s="241"/>
       <c r="K11" s="62"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
